--- a/jacobi/src/test/resources/jacobi/test/data/LnLikeLogisticTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/LnLikeLogisticTest.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace-STS\maven.1536042399911\jacobi\src\test\resources\jacobi\test\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="8685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="test 3 vars with noise" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="rand" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:N26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -524,7 +520,7 @@
         <v>-7.8736879835035911E-2</v>
       </c>
       <c r="F8">
-        <f>IF(D8+E8&gt;0.5, 1, 0)</f>
+        <f>IF(D8+E8&gt;0.5, 1, -1)</f>
         <v>1</v>
       </c>
       <c r="G8">
@@ -2956,13 +2952,13 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f>F8</f>
+        <f>IF(F8 &gt; 0, 1, -1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" ref="A120:A138" si="59">F9</f>
+        <f t="shared" ref="A120:A138" si="59">IF(F9 &gt; 0, 1, -1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2975,7 +2971,7 @@
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2993,7 +2989,7 @@
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3005,7 +3001,7 @@
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3023,7 +3019,7 @@
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3040,8 +3036,8 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f>F22</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3053,7 +3049,7 @@
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3065,7 +3061,7 @@
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3225,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3472,47 +3468,47 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">2*RAND()-1</f>
-        <v>0.45759308825688549</v>
+        <v>-0.10502247738798531</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">2*RAND()-1</f>
-        <v>0.69580540479850028</v>
+        <v>-0.77349274052174799</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50453484880388122</v>
+        <v>0.18012789077589386</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94368821237050415</v>
+        <v>1.3943828785534684E-2</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90815244238591775</v>
+        <v>-0.4378798137025286</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57181282656211319</v>
+        <v>-0.27545373525073891</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9482091839327631</v>
+        <v>-0.16218503113544247</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72019926673355283</v>
+        <v>-0.50654004562545207</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56369881531322519</v>
+        <v>0.73851635836701557</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74675455902202459</v>
+        <v>-0.77773151818274289</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17963733338466081</v>
+        <v>0.77793691973853307</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
@@ -3521,1451 +3517,1451 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:K30" ca="1" si="1">2*RAND()-1</f>
-        <v>-0.31361476571013713</v>
+        <v>-0.17050331750400893</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45492156163255593</v>
+        <v>-0.62320056870928719</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92744278229979771</v>
+        <v>0.30778996330979136</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27060773672727567</v>
+        <v>0.44208137048849672</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31216225014250232</v>
+        <v>-9.7830281777177008E-2</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7678446859186856E-2</v>
+        <v>-7.158479555960251E-2</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1368961145053369E-2</v>
+        <v>0.77052818127607714</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27244714824013805</v>
+        <v>-0.30651912140884763</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94542702234451204</v>
+        <v>0.76883462546318038</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41432929234355309</v>
+        <v>-0.97100766887311507</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87012599444792871</v>
+        <v>0.10586358146829244</v>
       </c>
       <c r="N2">
         <f ca="1">0.4*RAND() - 0.2</f>
-        <v>-1.203212186111155E-2</v>
+        <v>-0.14106997902336788</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65881796049850383</v>
+        <v>0.28051218660085064</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20585213174448236</v>
+        <v>-0.52489573747895424</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40540414312357442</v>
+        <v>0.21587737813841623</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5648900228467979</v>
+        <v>-0.28586431237073251</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44789117744665274</v>
+        <v>-0.89314418579672128</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25189481845559736</v>
+        <v>-0.68137531284758146</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50927283812328428</v>
+        <v>-0.32949238559279781</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66202124470210522</v>
+        <v>-0.33904275595142574</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49643396520200622</v>
+        <v>-0.43700187276815794</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50488945269502539</v>
+        <v>-0.58541569570194185</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13473921366295261</v>
+        <v>-0.9648379511312406</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N30" ca="1" si="2">0.4*RAND() - 0.2</f>
-        <v>-1.6787647488696822E-2</v>
+        <v>-3.378175716077067E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89752350465248854</v>
+        <v>0.93364033900463594</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84827038162393142</v>
+        <v>-0.47874441739644524</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9633972415561356</v>
+        <v>0.21263206022609182</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17827263607082355</v>
+        <v>-0.18944582562943135</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28011951932248014</v>
+        <v>-2.0739107937677526E-2</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28106874760263501</v>
+        <v>-0.67975194318454624</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3981156412513287</v>
+        <v>0.80104483142862049</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41549859408885692</v>
+        <v>-0.89523545924393999</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0121064576512637E-2</v>
+        <v>0.56211987337800129</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35748054145167485</v>
+        <v>0.85147846163746954</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68366588199170897</v>
+        <v>-0.22078105471522891</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.951540068066699E-3</v>
+        <v>4.3704992842835411E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38164516491839584</v>
+        <v>0.88713909433659444</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1557296141399958E-2</v>
+        <v>-0.94793658655380097</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93667313481381553</v>
+        <v>1.5476986462356734E-2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84425193639344176</v>
+        <v>-0.8765126541353776</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84689364472340167</v>
+        <v>0.13045587490542521</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3744905149225595E-3</v>
+        <v>0.16378444589064767</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70153707828169254</v>
+        <v>-0.56184031659392319</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63856667608590012</v>
+        <v>0.18194234240374119</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72411424352029474</v>
+        <v>8.1253482322937609E-2</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10607256670695331</v>
+        <v>0.30620726797496522</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2930241956686177</v>
+        <v>-3.3519507678666072E-2</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17222241530858318</v>
+        <v>-0.11443606792118946</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56644534734050955</v>
+        <v>0.64340710906082488</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14571831526989265</v>
+        <v>-0.12518474381795031</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41401483438476161</v>
+        <v>0.68063541512395487</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38677089016805843</v>
+        <v>-6.8075653696180183E-3</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96425437539186842</v>
+        <v>0.95106863980038248</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.438536202505313</v>
+        <v>0.46461928122813267</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27892941410268501</v>
+        <v>9.8714555505083901E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4269920435984087</v>
+        <v>0.56437558625898165</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5004088916977825E-3</v>
+        <v>-0.77248596905569089</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97121668776707848</v>
+        <v>0.78985916449617011</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18391627397868993</v>
+        <v>-0.24598569354621014</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5425965012064825E-2</v>
+        <v>-8.2417743501324345E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84624968312557236</v>
+        <v>0.26905161682402223</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27276982977269326</v>
+        <v>-0.5514954787524271</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57358863569454943</v>
+        <v>-0.2148555682770994</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37252657592851079</v>
+        <v>-0.92860133363506758</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77049987857446389</v>
+        <v>-0.40485907387300646</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14069482940221079</v>
+        <v>-0.32140082259877167</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81354555230436865</v>
+        <v>0.49805023015034977</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78556972510895196</v>
+        <v>-0.72590079346045822</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82611701195345555</v>
+        <v>-0.76047089781192367</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18616791402869426</v>
+        <v>-0.32783067405305322</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0717301369316283E-2</v>
+        <v>-0.69484129363946789</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.664832862554267E-2</v>
+        <v>1.9371428195445628E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69437534680465962</v>
+        <v>-0.97898738202372471</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32216293828919462</v>
+        <v>-0.49000340075369309</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80900635643115448</v>
+        <v>-0.43268325410778496</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.0207554580808971E-3</v>
+        <v>-0.40454542094273727</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26525709121116403</v>
+        <v>0.9019041749976211</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55877695283949746</v>
+        <v>-0.67282297988539397</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76935078493925446</v>
+        <v>0.81544967498387511</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92085888900487567</v>
+        <v>0.94245455837989445</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88632607875382186</v>
+        <v>-0.31206617369219081</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66209263668177032</v>
+        <v>-0.5577676775410676</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57663728344588194</v>
+        <v>-0.71590570460615877</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8469001114026011E-3</v>
+        <v>0.16562924836125825</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12038177045245657</v>
+        <v>-0.96824038891189823</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36012823162524632</v>
+        <v>0.70611124970466488</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84965429019704608</v>
+        <v>-0.93576130982932693</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79254520223820935</v>
+        <v>-0.69328253567116627</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70347150534231084</v>
+        <v>-0.96536398545734392</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60565912021862145</v>
+        <v>0.28924742067493714</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75976903488080683</v>
+        <v>-0.8259892369424644</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11889879097631506</v>
+        <v>0.99190458589347164</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44406229299292566</v>
+        <v>0.9007266460920349</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15526149526494426</v>
+        <v>-0.50949328368031166</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33016738469965556</v>
+        <v>-0.64573001155188892</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12413056214160795</v>
+        <v>0.13168481477901872</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23906480380244299</v>
+        <v>0.55327733088281716</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63701974565596919</v>
+        <v>0.76991227730409006</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9798091699109337</v>
+        <v>-0.28942334922876034</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.87558449729290277</v>
+        <v>-0.32241228567706126</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30989859600995384</v>
+        <v>0.71597380881051143</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60373565268555973</v>
+        <v>0.87054605688230691</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71257502622494995</v>
+        <v>0.91404671520783509</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88013794513855026</v>
+        <v>-0.45271251670379042</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8055509988878462</v>
+        <v>-0.11179388690467951</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1286385705948199E-2</v>
+        <v>9.1702252368687454E-2</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23439100788220424</v>
+        <v>-0.50357923092538392</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.3932817468782405E-2</v>
+        <v>-0.10120721917979797</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55531310639384057</v>
+        <v>-0.42441181795449201</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9257156757588776E-2</v>
+        <v>0.11071051741562465</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79032029234124668</v>
+        <v>-6.4001048930894866E-2</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11434852058149203</v>
+        <v>0.20740944520345783</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14247139313875823</v>
+        <v>0.34759410246502043</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64103757245008142</v>
+        <v>0.46857431670968519</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11010456956829251</v>
+        <v>0.61091146546928687</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38829599636655798</v>
+        <v>0.14105961673027911</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74033995115098805</v>
+        <v>0.34629562569407768</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1865072442150606</v>
+        <v>-0.13738089046197</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29666243778766055</v>
+        <v>-0.93226017211778833</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.3023052783801001E-2</v>
+        <v>4.3129589683679997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5260078022690147E-2</v>
+        <v>-9.4438072078997681E-2</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74570407176534781</v>
+        <v>-0.17920937167919337</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85843945764354057</v>
+        <v>0.37620209200194821</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28197470768813404</v>
+        <v>0.44483954949721394</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25569860658949528</v>
+        <v>-0.19583719315031489</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91841256981738528</v>
+        <v>-0.55865190414975419</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72279236060004082</v>
+        <v>0.14751498104162919</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79718243930594679</v>
+        <v>0.17552242630952275</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7109682249835556E-2</v>
+        <v>-0.34710207592695674</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58636305244568865</v>
+        <v>-4.0919375671344405E-3</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.417474964385248</v>
+        <v>-0.8663322817931054</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>2.121885668888418E-2</v>
+        <v>-2.9885181081866025E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46555328449980515</v>
+        <v>-0.63956406226282603</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54640909044881436</v>
+        <v>6.0124402949708333E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18594661115586431</v>
+        <v>-0.73814116064672564</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89936615503037864</v>
+        <v>-0.2960146617254531</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65207530869873898</v>
+        <v>0.16494851249791442</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68818615985806497</v>
+        <v>-0.84769286673021305</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60468845796712278</v>
+        <v>1.6583063965538214E-2</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79556622364574348</v>
+        <v>-0.74510744998795397</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52177307227131764</v>
+        <v>-0.25601362145790008</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18641687722324041</v>
+        <v>-0.94193606606753399</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96734193421915782</v>
+        <v>0.54470853563047128</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10446311680898707</v>
+        <v>-1.4221212618066914E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8790648319021228E-2</v>
+        <v>0.83617561781239891</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51103592635065387</v>
+        <v>0.33673343194681649</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59034986365473618</v>
+        <v>0.43934130387445713</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58258667876633563</v>
+        <v>9.1674059173812328E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20638484162338022</v>
+        <v>-0.53475983505607805</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74830397672263604</v>
+        <v>0.45880761811100768</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78060722739129429</v>
+        <v>0.46477501274065336</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99658550578105687</v>
+        <v>4.191219848690042E-2</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86412360941892263</v>
+        <v>-7.4178559487974693E-2</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50468985696215296</v>
+        <v>0.60816408350181717</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66288474697556077</v>
+        <v>-0.78983828375739629</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11013875457394628</v>
+        <v>0.11073803922843101</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73363679865439324</v>
+        <v>-0.74406724145779268</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29095729605621923</v>
+        <v>-0.81476214154363369</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92274959903331144</v>
+        <v>0.87903573801167911</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40715741042559683</v>
+        <v>-0.99546946051430774</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4871686399557955E-2</v>
+        <v>-0.64838297993600058</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.87781860309594251</v>
+        <v>0.6053561075622107</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92675832096483335</v>
+        <v>0.63992644582204616</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74423450326238094</v>
+        <v>0.39250118564391201</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40871455573586934</v>
+        <v>0.18686452649683472</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3227887227306194E-3</v>
+        <v>0.12188074914197533</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17636482073782123</v>
+        <v>-0.77344003542369255</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4248966070794122E-2</v>
+        <v>-0.15809618354584237</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26354849897486776</v>
+        <v>0.42406960815434891</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17684025558697636</v>
+        <v>0.19234215406797639</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80700271090845344</v>
+        <v>-0.1864008616163344</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41305907411926412</v>
+        <v>0.68164913405868321</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63885925610656424</v>
+        <v>0.59222808369069391</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39086733845179777</v>
+        <v>0.25585503232360773</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76719638764731535</v>
+        <v>-0.1385362759947002</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79988476100565253</v>
+        <v>0.80279168671269474</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7025210754926563</v>
+        <v>0.24887635022448773</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11708818044606351</v>
+        <v>0.470071506038515</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10911298688924154</v>
+        <v>1.993588460506901E-2</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15147092581456498</v>
+        <v>0.11298037652155613</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49537120013704961</v>
+        <v>-0.78153736675294394</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97404049635584711</v>
+        <v>0.54758501678634985</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87301710002986077</v>
+        <v>0.91332565819218403</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72928449584633803</v>
+        <v>-0.10955269785669075</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79695107005194843</v>
+        <v>0.27927187198669245</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80612022879345369</v>
+        <v>0.66148811463375101</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31007982702967363</v>
+        <v>-0.51657207216715628</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10170654761379172</v>
+        <v>0.89948008511562305</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46948473633512933</v>
+        <v>-0.17815378716193608</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5843014714932746</v>
+        <v>-0.50246557652108925</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8145461565995316E-2</v>
+        <v>-0.45820283249143046</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4922533602373111E-2</v>
+        <v>-0.18407407063141423</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15295753043565785</v>
+        <v>-0.52121196552914251</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65463357691494473</v>
+        <v>7.1298286521803034E-2</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73832421612149401</v>
+        <v>0.22851982563347328</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63746196562526292</v>
+        <v>0.62932316402150779</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92886922030868502</v>
+        <v>0.59725653502915144</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53826539376781946</v>
+        <v>-0.97291669628593991</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20601910865241679</v>
+        <v>0.97431505423825904</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63650582944610679</v>
+        <v>0.75755622615754548</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77023577787159159</v>
+        <v>0.94256641461462753</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.70745152952997237</v>
+        <v>-0.29761340133156966</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14791696956217515</v>
+        <v>-0.81936653742352217</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9332893918722633E-4</v>
+        <v>0.10687152853803988</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3038805439705925E-2</v>
+        <v>-0.94203858489596337</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92644386345183527</v>
+        <v>0.32427143563645289</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73191574587062491</v>
+        <v>0.92559843413292109</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37676292602370287</v>
+        <v>0.9200128990677634</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6124553040869356</v>
+        <v>-0.75107908056100459</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.87860352337362135</v>
+        <v>0.70671372765626561</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57620776904736859</v>
+        <v>-0.63256158359561909</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51609924064780133</v>
+        <v>-0.89445333762591916</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92006582576713147</v>
+        <v>-0.98465049219232736</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14156141813674772</v>
+        <v>-0.53609610131197427</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38846763223791481</v>
+        <v>0.40716805120086863</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15996239871434162</v>
+        <v>9.7557980555484147E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14624983678289083</v>
+        <v>0.92761664474380501</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47126908547791313</v>
+        <v>0.63954165443304034</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9635551799174014E-2</v>
+        <v>-6.4360304527385059E-2</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.083602937320463E-2</v>
+        <v>0.61533468818986758</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.8270677901714738</v>
+        <v>-0.28156510441035643</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5528741896565601</v>
+        <v>-9.1953433903723125E-2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67831481857346376</v>
+        <v>-0.52465970146924068</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74992801168172996</v>
+        <v>0.16336017285130566</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36192294030619587</v>
+        <v>-0.7656276368496735</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57755020757079634</v>
+        <v>-0.53567701382847455</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48063331980938395</v>
+        <v>-0.46007231109464564</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.19862519089775266</v>
+        <v>0.12659854997911901</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37066099724532298</v>
+        <v>0.98493525627011436</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87539482602283658</v>
+        <v>0.65383271017557942</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.83066307998466105</v>
+        <v>5.6418586776432633E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90366954889952678</v>
+        <v>0.31503598194597582</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52641363779367789</v>
+        <v>0.67434994831017692</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4245298931453747</v>
+        <v>7.1962634468964115E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14599877818441476</v>
+        <v>-0.32228432957438269</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49627743389889067</v>
+        <v>-0.66152882210563657</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68390566901061756</v>
+        <v>0.43824552557491825</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71162195799161543</v>
+        <v>-0.488620268982775</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45248151721555185</v>
+        <v>-0.70571761446431114</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.18998641573692523</v>
+        <v>0.12574059313884917</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74691732049041804</v>
+        <v>-0.43255791535004628</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48164291017125849</v>
+        <v>7.5473898339656342E-2</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3753738481590787</v>
+        <v>0.6262261813977763</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94405424469161847</v>
+        <v>0.8839879972035074</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39361313361842587</v>
+        <v>-0.86205575083772445</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16215523654369091</v>
+        <v>0.22155752903344506</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.71283278147936047</v>
+        <v>-0.14832258127452835</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30401588432392956</v>
+        <v>-8.4076250080858728E-2</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.95064111302616272</v>
+        <v>-0.44615849664639895</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63574394968801418</v>
+        <v>0.27146348982107327</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0367276821375189E-2</v>
+        <v>-1.3255798926461448E-2</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10269202910544256</v>
+        <v>0.16130549480518963</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57435732417564789</v>
+        <v>0.73587606065320887</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.575658668836982E-2</v>
+        <v>0.10775197504980016</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56790908584925681</v>
+        <v>-0.25441442357737554</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24557199706618138</v>
+        <v>0.16406001008307669</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35280545397595064</v>
+        <v>-0.9508034060998718</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5049976469141653E-2</v>
+        <v>0.15025321639511002</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83346204478505204</v>
+        <v>-0.73703286076500807</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39567137266484398</v>
+        <v>0.10108612497152891</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0031691531205578E-2</v>
+        <v>0.17227701353588909</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54429764140327785</v>
+        <v>-0.42740313103784522</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.77468661244372439</v>
+        <v>0.33491933585655609</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.7465147799003062E-2</v>
+        <v>-6.1492384066372863E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19475874099101964</v>
+        <v>-0.90626198412948678</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.489190355787235E-2</v>
+        <v>-0.15713608876524532</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97325660088133881</v>
+        <v>-0.81189352698321349</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22654113292139444</v>
+        <v>-0.80590652646346217</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69629082386688812</v>
+        <v>-7.9789093167811131E-2</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.99255071117280558</v>
+        <v>-0.70460856285495055</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31361417949706816</v>
+        <v>0.95886102277674778</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92178031030014718</v>
+        <v>-0.9173880525456144</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52755303104720808</v>
+        <v>0.27519891542443409</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44913206321734611</v>
+        <v>-0.64718095215581362</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4543452818200056E-2</v>
+        <v>0.91781257033906716</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13498434994140773</v>
+        <v>1.1719258525133197E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72276612600455814</v>
+        <v>-0.20594822632226428</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26793183623596528</v>
+        <v>-0.14356639131942495</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60420137116000761</v>
+        <v>-9.5348134575590215E-4</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57383058580576307</v>
+        <v>0.42636637219024864</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7218904027947355E-2</v>
+        <v>0.74992538776704309</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93233722920279227</v>
+        <v>-9.8915601974409739E-2</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22224279125762925</v>
+        <v>0.50254794193880348</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.96792465982824449</v>
+        <v>-0.19224760100696447</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.87653586025496755</v>
+        <v>0.42199366560616047</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81607122370883078</v>
+        <v>-0.54655538863023834</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86317239537794488</v>
+        <v>-0.39455149600332162</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2358040923442095E-2</v>
+        <v>2.1418502477677348E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3850762184218794E-2</v>
+        <v>-0.45001972284126768</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95070329724138092</v>
+        <v>-0.42942976193512639</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58337470433460381</v>
+        <v>0.50952345212713435</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.67918762364045127</v>
+        <v>-0.20857810734842253</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10834511598195196</v>
+        <v>0.223852369990164</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31073974705142682</v>
+        <v>0.83910304961719095</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.97716704302748814</v>
+        <v>0.57709222608226352</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15951682242617027</v>
+        <v>0.39156823398675056</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17278988445272114</v>
+        <v>-0.3496324538153035</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.962439899213134</v>
+        <v>0.69686564305322718</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28522929340036196</v>
+        <v>-0.8665411608283291</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9125830493049445E-2</v>
+        <v>3.729282779219098E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7004128266462406</v>
+        <v>-0.7603168726624594</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.2975611355480918E-2</v>
+        <v>-0.1401681612084329</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55250912920827511</v>
+        <v>-1.7242331229443852E-2</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.91696981657017451</v>
+        <v>-0.10266291730998689</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10933422922528013</v>
+        <v>0.33740818909820303</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20566347660819462</v>
+        <v>0.93261384947636206</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28820516017615083</v>
+        <v>0.99759009233783469</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9646978649574987E-2</v>
+        <v>0.6649215110403488</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57638532948283783</v>
+        <v>2.8995976208989305E-2</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72889092679889278</v>
+        <v>-0.64713198193881949</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86327589351863065</v>
+        <v>-6.5003143967956145E-2</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10386631467714857</v>
+        <v>-0.12778231308362914</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71494262621715543</v>
+        <v>-2.3208893077420578E-2</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16513696997953664</v>
+        <v>-0.22388892983959452</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98281503117794822</v>
+        <v>-1.3256209474491243E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31993704446549809</v>
+        <v>0.64190044382947531</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61648177273334626</v>
+        <v>0.62690120284444406</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7576018924351917E-2</v>
+        <v>0.63691979744404459</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19984457841075454</v>
+        <v>-0.93596804478868423</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83055373231997942</v>
+        <v>0.81532013721355989</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63835957027007373</v>
+        <v>-0.27288112308296908</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59984133231734971</v>
+        <v>-0.46777472711579104</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17958479991446086</v>
+        <v>0.98891176712959217</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1498105953970208</v>
+        <v>-1.0304837635786018E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8233031179056463E-2</v>
+        <v>-0.43893905610446682</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62714366396683174</v>
+        <v>3.3200016894605389E-2</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35150241160631412</v>
+        <v>-0.32804099809583209</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.368224248268753</v>
+        <v>0.64294939774889892</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.70868708963228855</v>
+        <v>-0.12682594692022087</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7547362331262777E-2</v>
+        <v>-0.20628272750279297</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89857443109966839</v>
+        <v>0.359570366289923</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52728036941351863</v>
+        <v>0.95659726097257702</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35799945008405021</v>
+        <v>7.7158906620271583E-3</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12887860952226271</v>
+        <v>0.68968422604919022</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12364935051682502</v>
+        <v>0.3692814489584233</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9270644716957004E-2</v>
+        <v>4.35538949968301E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2669103511228332E-2</v>
+        <v>0.36905633165051444</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77658206648604411</v>
+        <v>0.68965673850623732</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13012378532260827</v>
+        <v>0.39660537163151455</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26777791201951473</v>
+        <v>4.9369622028932802E-2</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20706762962087377</v>
+        <v>-9.4942696986258346E-2</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50418463753057607</v>
+        <v>0.89548809481938108</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21819644173642394</v>
+        <v>0.73627414170189232</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9733190697523455</v>
+        <v>-0.32640030628685501</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59457674399413007</v>
+        <v>0.47749208127709242</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.60897897137131562</v>
+        <v>0.54641322933456093</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33138558397368212</v>
+        <v>-0.47028486171852357</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11066473236767643</v>
+        <v>-5.6644866995632648E-3</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/LnLikeLogisticTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/LnLikeLogisticTest.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\git\jacobi\jacobi\src\test\resources\jacobi\test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test 3 vars with noise" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,6 @@
     <sheet name="rand" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:N26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:A138"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3221,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3468,47 +3472,47 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">2*RAND()-1</f>
-        <v>-0.10502247738798531</v>
+        <v>0.13625009306911573</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">2*RAND()-1</f>
-        <v>-0.77349274052174799</v>
+        <v>0.43437020514957148</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18012789077589386</v>
+        <v>-0.9118389727951568</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3943828785534684E-2</v>
+        <v>0.33185190685208399</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4378798137025286</v>
+        <v>8.679035631087384E-2</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27545373525073891</v>
+        <v>-0.43643477413456711</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16218503113544247</v>
+        <v>9.5648189899684155E-3</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50654004562545207</v>
+        <v>-0.42182454576860628</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73851635836701557</v>
+        <v>-0.49392499203224194</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77773151818274289</v>
+        <v>0.40186188426619451</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77793691973853307</v>
+        <v>-0.95074972232623423</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
@@ -3517,1451 +3521,1451 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:K30" ca="1" si="1">2*RAND()-1</f>
-        <v>-0.17050331750400893</v>
+        <v>0.95255093642869859</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62320056870928719</v>
+        <v>0.17086192365878317</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30778996330979136</v>
+        <v>-0.30300375314708949</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44208137048849672</v>
+        <v>0.28425073332472728</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.7830281777177008E-2</v>
+        <v>0.43179573231924029</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.158479555960251E-2</v>
+        <v>-0.27403209023498176</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77052818127607714</v>
+        <v>-0.29165415713549092</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30651912140884763</v>
+        <v>-0.21957053214661038</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76883462546318038</v>
+        <v>-0.12980796868955569</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97100766887311507</v>
+        <v>-0.91944676341924958</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10586358146829244</v>
+        <v>-0.28808383280263072</v>
       </c>
       <c r="N2">
         <f ca="1">0.4*RAND() - 0.2</f>
-        <v>-0.14106997902336788</v>
+        <v>-0.19610956637010185</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28051218660085064</v>
+        <v>-0.89284007403704835</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52489573747895424</v>
+        <v>-0.43483861129325185</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21587737813841623</v>
+        <v>-0.63259786046258548</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28586431237073251</v>
+        <v>0.45105912236346524</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89314418579672128</v>
+        <v>-0.90001453483393767</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68137531284758146</v>
+        <v>-0.20509056250774949</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32949238559279781</v>
+        <v>-0.73788746978767938</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33904275595142574</v>
+        <v>-0.89252308300003813</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43700187276815794</v>
+        <v>0.63809694803317973</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58541569570194185</v>
+        <v>-0.28612008196084959</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9648379511312406</v>
+        <v>8.1795064423007657E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N30" ca="1" si="2">0.4*RAND() - 0.2</f>
-        <v>-3.378175716077067E-2</v>
+        <v>-8.3783130757442245E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93364033900463594</v>
+        <v>-0.12001730750321937</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.47874441739644524</v>
+        <v>0.39774945649861948</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21263206022609182</v>
+        <v>0.88881707872904925</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18944582562943135</v>
+        <v>-0.59186135736946843</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0739107937677526E-2</v>
+        <v>-0.66017329343673192</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67975194318454624</v>
+        <v>-0.20772225996343652</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80104483142862049</v>
+        <v>0.3263469333267901</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89523545924393999</v>
+        <v>-0.21254517331576528</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56211987337800129</v>
+        <v>0.39682519180926845</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85147846163746954</v>
+        <v>0.15067252745938453</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22078105471522891</v>
+        <v>0.53105595691306395</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3704992842835411E-3</v>
+        <v>0.15815690250490871</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88713909433659444</v>
+        <v>0.3195398832678642</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94793658655380097</v>
+        <v>0.88352595441537884</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5476986462356734E-2</v>
+        <v>-0.62788113572858073</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8765126541353776</v>
+        <v>-0.7486180113615275</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13045587490542521</v>
+        <v>-0.42181634417557201</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16378444589064767</v>
+        <v>-0.65912323160018604</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56184031659392319</v>
+        <v>0.28426351560082619</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18194234240374119</v>
+        <v>-0.60388007393656196</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1253482322937609E-2</v>
+        <v>0.27257844822647437</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30620726797496522</v>
+        <v>0.64797096859973746</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3519507678666072E-2</v>
+        <v>0.92213825556758855</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.11443606792118946</v>
+        <v>1.3175596336812312E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64340710906082488</v>
+        <v>-0.44692164649952515</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12518474381795031</v>
+        <v>-0.85262757365167086</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68063541512395487</v>
+        <v>0.90140749178190638</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8075653696180183E-3</v>
+        <v>0.46672150780390909</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95106863980038248</v>
+        <v>0.72317247895387005</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46461928122813267</v>
+        <v>-0.30358037306863239</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8714555505083901E-2</v>
+        <v>-0.76334461993685654</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56437558625898165</v>
+        <v>-0.48734665130599653</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77248596905569089</v>
+        <v>0.34702367689934199</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78985916449617011</v>
+        <v>0.48011422847883134</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24598569354621014</v>
+        <v>-0.7981250679954397</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.2417743501324345E-2</v>
+        <v>-0.1192622141485586</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26905161682402223</v>
+        <v>0.25286967729265908</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5514954787524271</v>
+        <v>-0.76561413041723014</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2148555682770994</v>
+        <v>3.3534764171867515E-2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92860133363506758</v>
+        <v>0.77635331334218383</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40485907387300646</v>
+        <v>-0.86494298364996158</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32140082259877167</v>
+        <v>0.23104521792701105</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49805023015034977</v>
+        <v>0.11838147718430858</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72590079346045822</v>
+        <v>0.88483076310692255</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76047089781192367</v>
+        <v>-0.34107105773627588</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32783067405305322</v>
+        <v>0.50743476221100758</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69484129363946789</v>
+        <v>-0.15575110754613397</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9371428195445628E-2</v>
+        <v>1.4289507775087446E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.97898738202372471</v>
+        <v>-0.39388059866974867</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49000340075369309</v>
+        <v>-0.60794229508610886</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43268325410778496</v>
+        <v>0.97894276768489008</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40454542094273727</v>
+        <v>-0.88427569261635841</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9019041749976211</v>
+        <v>-0.9890076264184442</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67282297988539397</v>
+        <v>0.1322744315360862</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81544967498387511</v>
+        <v>-0.11858812243457484</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94245455837989445</v>
+        <v>0.4206805143958563</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31206617369219081</v>
+        <v>0.69857392921551198</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5577676775410676</v>
+        <v>0.1923668147597446</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71590570460615877</v>
+        <v>-0.91774159285599621</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16562924836125825</v>
+        <v>-0.16870434133354817</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.96824038891189823</v>
+        <v>-0.90212858542858809</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70611124970466488</v>
+        <v>0.18904976519823191</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93576130982932693</v>
+        <v>-0.63109720353720311</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69328253567116627</v>
+        <v>-0.65419949400503907</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96536398545734392</v>
+        <v>9.7638429192027143E-2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28924742067493714</v>
+        <v>-0.13377712257324514</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8259892369424644</v>
+        <v>0.63693005680496073</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99190458589347164</v>
+        <v>0.15061449009259875</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9007266460920349</v>
+        <v>-0.14193791765431829</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50949328368031166</v>
+        <v>-0.67758727545369046</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64573001155188892</v>
+        <v>-0.99029563200396731</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13168481477901872</v>
+        <v>7.7690664301019285E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55327733088281716</v>
+        <v>0.48042170657331762</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76991227730409006</v>
+        <v>0.86729949765238867</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28942334922876034</v>
+        <v>-0.83869203655750435</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32241228567706126</v>
+        <v>-0.69301981989546002</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71597380881051143</v>
+        <v>0.38455567427722426</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87054605688230691</v>
+        <v>0.32500684987484929</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91404671520783509</v>
+        <v>-0.32103613250502616</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45271251670379042</v>
+        <v>-0.79912188861267208</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11179388690467951</v>
+        <v>0.36961830824056729</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1702252368687454E-2</v>
+        <v>-0.47193335601910591</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50357923092538392</v>
+        <v>0.44770992214400174</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10120721917979797</v>
+        <v>0.19862658616853829</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42441181795449201</v>
+        <v>0.67528983817526944</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11071051741562465</v>
+        <v>-0.57501555334249765</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4001048930894866E-2</v>
+        <v>-0.34531350412969974</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20740944520345783</v>
+        <v>-0.85363543233159178</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34759410246502043</v>
+        <v>0.29916849667420142</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46857431670968519</v>
+        <v>0.51169875360636041</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61091146546928687</v>
+        <v>-0.32552330750652314</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14105961673027911</v>
+        <v>0.79383100365559156</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34629562569407768</v>
+        <v>-0.95424928421326483</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13738089046197</v>
+        <v>-0.33956123542509031</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93226017211778833</v>
+        <v>0.49426300138727486</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3129589683679997E-2</v>
+        <v>7.6188599139616398E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4438072078997681E-2</v>
+        <v>0.2161742220004903</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17920937167919337</v>
+        <v>-0.56256968205179758</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37620209200194821</v>
+        <v>0.98451572678169419</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44483954949721394</v>
+        <v>0.69260641803908918</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19583719315031489</v>
+        <v>0.13741290112848081</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55865190414975419</v>
+        <v>0.2770854441794619</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14751498104162919</v>
+        <v>-0.77263126850556207</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17552242630952275</v>
+        <v>0.89288606478731469</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34710207592695674</v>
+        <v>-0.79406254103083729</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0919375671344405E-3</v>
+        <v>0.59106250613516331</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8663322817931054</v>
+        <v>0.18806871149821802</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.9885181081866025E-2</v>
+        <v>0.15097526537037353</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63956406226282603</v>
+        <v>-0.2360829548224308</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0124402949708333E-2</v>
+        <v>-0.78952614691231982</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73814116064672564</v>
+        <v>-1.2510962422196403E-2</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2960146617254531</v>
+        <v>0.80855146371041964</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16494851249791442</v>
+        <v>0.66770786533097026</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84769286673021305</v>
+        <v>-0.71432382947866935</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6583063965538214E-2</v>
+        <v>-0.62341299998320276</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74510744998795397</v>
+        <v>-0.63161306082778967</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25601362145790008</v>
+        <v>0.78101011020479572</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94193606606753399</v>
+        <v>-7.6536943544764702E-2</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54470853563047128</v>
+        <v>-0.63001712950858146</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4221212618066914E-2</v>
+        <v>-5.0401046803812272E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83617561781239891</v>
+        <v>0.25595072615822723</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33673343194681649</v>
+        <v>0.30778935061217028</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43934130387445713</v>
+        <v>0.56848537176778025</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1674059173812328E-2</v>
+        <v>-0.71873753158888132</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53475983505607805</v>
+        <v>0.70578736892851079</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45880761811100768</v>
+        <v>0.7589043784571976</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46477501274065336</v>
+        <v>0.69101674173422567</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.191219848690042E-2</v>
+        <v>0.50151417030936218</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.4178559487974693E-2</v>
+        <v>4.1350512035711162E-2</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60816408350181717</v>
+        <v>0.51851729802457291</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78983828375739629</v>
+        <v>0.69145240883007686</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11073803922843101</v>
+        <v>4.010965263251659E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74406724145779268</v>
+        <v>-0.21317766175385966</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81476214154363369</v>
+        <v>-0.42618326199723322</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87903573801167911</v>
+        <v>-0.3678592207746767</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99546946051430774</v>
+        <v>-0.94076947373573194</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64838297993600058</v>
+        <v>0.88143970370224545</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6053561075622107</v>
+        <v>-0.54676441730533365</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63992644582204616</v>
+        <v>0.98433599850995956</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39250118564391201</v>
+        <v>0.54215422912687772</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18686452649683472</v>
+        <v>-0.13820917969056468</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12188074914197533</v>
+        <v>5.5977671559155562E-2</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77344003542369255</v>
+        <v>6.6763241786897076E-2</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15809618354584237</v>
+        <v>-2.6180917512814428E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42406960815434891</v>
+        <v>0.98070762088693453</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19234215406797639</v>
+        <v>-0.35021479857812365</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1864008616163344</v>
+        <v>0.21266393133373773</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68164913405868321</v>
+        <v>-0.31140808650309149</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59222808369069391</v>
+        <v>0.58392245468868897</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25585503232360773</v>
+        <v>-0.71214821517968141</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1385362759947002</v>
+        <v>-0.4058683426902665</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80279168671269474</v>
+        <v>0.6734403816587673</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24887635022448773</v>
+        <v>-0.71861791348709603</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.470071506038515</v>
+        <v>0.40522114298483225</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.993588460506901E-2</v>
+        <v>0.28115996209906169</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11298037652155613</v>
+        <v>5.3425456037589469E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.78153736675294394</v>
+        <v>0.31954750523382125</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54758501678634985</v>
+        <v>-0.57587311823208287</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91332565819218403</v>
+        <v>-0.76083976926455699</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10955269785669075</v>
+        <v>-0.80053920605426065</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27927187198669245</v>
+        <v>0.66136730304195468</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66148811463375101</v>
+        <v>-0.23843296146089821</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51657207216715628</v>
+        <v>0.84716725388237313</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89948008511562305</v>
+        <v>-0.71627094852604478</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17815378716193608</v>
+        <v>-4.1775047213443717E-3</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50246557652108925</v>
+        <v>-0.17435714422290149</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.45820283249143046</v>
+        <v>0.10978977436583071</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.18407407063141423</v>
+        <v>4.4363817047838872E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52121196552914251</v>
+        <v>-0.80584874650612326</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1298286521803034E-2</v>
+        <v>-9.3807988412072385E-2</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22851982563347328</v>
+        <v>-0.553859026668307</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62932316402150779</v>
+        <v>-0.28520974679247146</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59725653502915144</v>
+        <v>-0.22012477467030722</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.97291669628593991</v>
+        <v>0.37678911422537942</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97431505423825904</v>
+        <v>-0.64058904403888017</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75755622615754548</v>
+        <v>0.39568931263341089</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94256641461462753</v>
+        <v>-0.33644869994220183</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29761340133156966</v>
+        <v>0.19852943074997564</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81936653742352217</v>
+        <v>0.59117828530601635</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10687152853803988</v>
+        <v>0.1841096003866573</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94203858489596337</v>
+        <v>0.6174095285337291</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32427143563645289</v>
+        <v>0.94626113661888334</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92559843413292109</v>
+        <v>-0.25382201506412483</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9200128990677634</v>
+        <v>0.65091581587919323</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.75107908056100459</v>
+        <v>-0.64205483897316484</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70671372765626561</v>
+        <v>0.55297403946143509</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63256158359561909</v>
+        <v>-0.20721841517513018</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89445333762591916</v>
+        <v>0.59055314288461047</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98465049219232736</v>
+        <v>0.63745864467155311</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53609610131197427</v>
+        <v>-0.48804434649738582</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40716805120086863</v>
+        <v>0.92636487967345893</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7557980555484147E-2</v>
+        <v>0.13892924649781507</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92761664474380501</v>
+        <v>-0.319338400182126</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63954165443304034</v>
+        <v>-0.68719870521184134</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4360304527385059E-2</v>
+        <v>-0.61643861761312513</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61533468818986758</v>
+        <v>0.92486619653458413</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28156510441035643</v>
+        <v>-0.18916735764862724</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1953433903723125E-2</v>
+        <v>-8.9456317926163598E-2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52465970146924068</v>
+        <v>-0.57227873348297265</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16336017285130566</v>
+        <v>0.80447483896389671</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.7656276368496735</v>
+        <v>-0.27403854660572469</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53567701382847455</v>
+        <v>-0.6163226246052953</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46007231109464564</v>
+        <v>-0.39719160821783617</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12659854997911901</v>
+        <v>3.3231052145478668E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98493525627011436</v>
+        <v>-0.24805665493115536</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65383271017557942</v>
+        <v>-0.59282006145322619</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6418586776432633E-2</v>
+        <v>-0.97042393830089857</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31503598194597582</v>
+        <v>5.5612420335901191E-2</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67434994831017692</v>
+        <v>-0.25107660548310329</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1962634468964115E-2</v>
+        <v>0.87537431894030693</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32228432957438269</v>
+        <v>-0.41677313519791803</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66152882210563657</v>
+        <v>0.72918646035536461</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43824552557491825</v>
+        <v>0.77038353760452449</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.488620268982775</v>
+        <v>-0.5064492384598529</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.70571761446431114</v>
+        <v>-0.33997756743621799</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12574059313884917</v>
+        <v>-0.17216374975540394</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43255791535004628</v>
+        <v>-0.77546583963342175</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5473898339656342E-2</v>
+        <v>-0.80636859310420683</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6262261813977763</v>
+        <v>0.99910014589527174</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8839879972035074</v>
+        <v>0.75256357961170095</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86205575083772445</v>
+        <v>-0.22503548081097846</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22155752903344506</v>
+        <v>0.77563499627911225</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14832258127452835</v>
+        <v>-0.66813381589055476</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.4076250080858728E-2</v>
+        <v>-0.38958822182413955</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44615849664639895</v>
+        <v>0.92581802528372203</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27146348982107327</v>
+        <v>-0.52185733303294835</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3255798926461448E-2</v>
+        <v>0.21145975942380502</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16130549480518963</v>
+        <v>7.9851767638357773E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73587606065320887</v>
+        <v>0.94168334153953315</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10775197504980016</v>
+        <v>0.7995947386673814</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25441442357737554</v>
+        <v>1.3483839886397675E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16406001008307669</v>
+        <v>-0.38871057152745703</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9508034060998718</v>
+        <v>0.98947192958400221</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15025321639511002</v>
+        <v>-0.23659088216938562</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73703286076500807</v>
+        <v>0.63056478730753152</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10108612497152891</v>
+        <v>0.53345875924814368</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17227701353588909</v>
+        <v>2.508451532037248E-2</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42740313103784522</v>
+        <v>0.62902976421427592</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33491933585655609</v>
+        <v>0.51351323482211386</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.1492384066372863E-2</v>
+        <v>-0.11762236413554322</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.90626198412948678</v>
+        <v>0.87792433003753745</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15713608876524532</v>
+        <v>-0.98831785638521019</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81189352698321349</v>
+        <v>-0.82366276921873638</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80590652646346217</v>
+        <v>-0.49676179029522705</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9789093167811131E-2</v>
+        <v>-0.60779915544403007</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.70460856285495055</v>
+        <v>-1.0161124239860708E-2</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95886102277674778</v>
+        <v>-0.88043336082384482</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9173880525456144</v>
+        <v>-0.57436976796757278</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27519891542443409</v>
+        <v>-0.64766508012615032</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64718095215581362</v>
+        <v>0.5474695467020001</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91781257033906716</v>
+        <v>0.16491279821174665</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1719258525133197E-2</v>
+        <v>9.5525028538419599E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20594822632226428</v>
+        <v>0.26602571476310555</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14356639131942495</v>
+        <v>-0.35660794125938922</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5348134575590215E-4</v>
+        <v>0.15471089476289457</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42636637219024864</v>
+        <v>-0.47725219690701337</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74992538776704309</v>
+        <v>-0.75791525426609629</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.8915601974409739E-2</v>
+        <v>-0.84340585897418463</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50254794193880348</v>
+        <v>6.9443186415121261E-2</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19224760100696447</v>
+        <v>-0.32878836090318653</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42199366560616047</v>
+        <v>-0.24074522587230107</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54655538863023834</v>
+        <v>0.19387195946079827</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39455149600332162</v>
+        <v>0.15302612346618893</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1418502477677348E-2</v>
+        <v>-7.3274498877441724E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.45001972284126768</v>
+        <v>-0.90045979353053296</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42942976193512639</v>
+        <v>-0.59597392613475098</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50952345212713435</v>
+        <v>-0.74778098734948117</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20857810734842253</v>
+        <v>-0.37262183262925497</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.223852369990164</v>
+        <v>0.21603250675938468</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83910304961719095</v>
+        <v>0.69795045094966723</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57709222608226352</v>
+        <v>0.53183880659639038</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39156823398675056</v>
+        <v>-0.27717432291094157</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3496324538153035</v>
+        <v>-0.73938374906148141</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69686564305322718</v>
+        <v>0.1472884491136679</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.8665411608283291</v>
+        <v>0.38338935077874559</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>3.729282779219098E-2</v>
+        <v>7.8956251509312347E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.7603168726624594</v>
+        <v>-0.2591091579486946</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1401681612084329</v>
+        <v>-0.79074385383603607</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7242331229443852E-2</v>
+        <v>0.93426087833951676</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10266291730998689</v>
+        <v>0.95366931245912934</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33740818909820303</v>
+        <v>0.78478904661075255</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93261384947636206</v>
+        <v>-6.6757787008951741E-2</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99759009233783469</v>
+        <v>0.8709160960378024</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6649215110403488</v>
+        <v>-0.76246198963229328</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8995976208989305E-2</v>
+        <v>0.7659243782537708</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64713198193881949</v>
+        <v>0.35759484859390467</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.5003143967956145E-2</v>
+        <v>-0.88592332830305365</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12778231308362914</v>
+        <v>-8.0555402576688806E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3208893077420578E-2</v>
+        <v>-0.16730630111265854</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22388892983959452</v>
+        <v>-0.68916459787284978</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3256209474491243E-2</v>
+        <v>0.31539617563749056</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64190044382947531</v>
+        <v>-5.9745626250666373E-2</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62690120284444406</v>
+        <v>-1.0909814866224554E-3</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63691979744404459</v>
+        <v>-0.69423687458127659</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.93596804478868423</v>
+        <v>-0.41157312322477591</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81532013721355989</v>
+        <v>7.175698465903757E-2</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27288112308296908</v>
+        <v>-0.92308019646298112</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46777472711579104</v>
+        <v>-3.7805561561333967E-2</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98891176712959217</v>
+        <v>-0.74606157325538836</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0304837635786018E-2</v>
+        <v>-0.10964800926853013</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43893905610446682</v>
+        <v>0.85597828487171279</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3200016894605389E-2</v>
+        <v>-0.2639158424652468</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32804099809583209</v>
+        <v>-0.29680612355386082</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64294939774889892</v>
+        <v>0.17726092549100425</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12682594692022087</v>
+        <v>0.75091058710614922</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20628272750279297</v>
+        <v>-0.86733461309917503</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.359570366289923</v>
+        <v>0.84524150986254898</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95659726097257702</v>
+        <v>-0.68045392778899472</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7158906620271583E-3</v>
+        <v>-9.2754845057427593E-2</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68968422604919022</v>
+        <v>0.66408774209877919</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3692814489584233</v>
+        <v>0.66242058043829344</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>4.35538949968301E-2</v>
+        <v>-9.2831927548288062E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36905633165051444</v>
+        <v>0.49957927044066186</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68965673850623732</v>
+        <v>0.88314494295145107</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39660537163151455</v>
+        <v>-8.2555651951695674E-2</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9369622028932802E-2</v>
+        <v>-0.46087346002620055</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4942696986258346E-2</v>
+        <v>-4.6890815440154165E-2</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89548809481938108</v>
+        <v>-0.29181979404981551</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73627414170189232</v>
+        <v>-0.4362158306478312</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32640030628685501</v>
+        <v>0.66793298258392531</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47749208127709242</v>
+        <v>-0.19705581981421672</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54641322933456093</v>
+        <v>0.87607962427059216</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47028486171852357</v>
+        <v>0.28978506036456153</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.6644866995632648E-3</v>
+        <v>-2.6447298014506154E-2</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/LnLikeLogisticTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/LnLikeLogisticTest.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test 3 vars with noise" sheetId="1" r:id="rId1"/>
     <sheet name="test bias + 2 vars using if" sheetId="4" r:id="rId2"/>
-    <sheet name="rand" sheetId="2" r:id="rId3"/>
+    <sheet name="test 4 vars with rand outcomes" sheetId="5" r:id="rId3"/>
+    <sheet name="rand" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Guess</t>
   </si>
@@ -112,7 +113,49 @@
     <t>Bias</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Logit</t>
+  </si>
+  <si>
+    <t>P(X)</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>LL'</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>LL''</t>
+  </si>
+  <si>
+    <t>Log-Like=</t>
+  </si>
+  <si>
+    <t>Df=</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Dz</t>
+  </si>
+  <si>
+    <t>grad=</t>
+  </si>
+  <si>
+    <t>Grad</t>
   </si>
 </sst>
 </file>
@@ -431,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3223,22 +3266,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3247,7 +3290,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3261,10 +3304,34 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3275,15 +3342,67 @@
         <v>0.18544273626649188</v>
       </c>
       <c r="D5">
-        <f>SUMPRODUCT(A$2:C$2,A5:C5)</f>
-        <v>10.302505657531862</v>
+        <f>SUMPRODUCT(A5:C5,A$2:C$2)</f>
+        <v>1.3025056575318619</v>
       </c>
       <c r="E5">
-        <f>IF(D5&gt;A2, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E5:E14" si="0">1/(1+EXP(-D5))</f>
+        <v>0.78625637907583945</v>
+      </c>
+      <c r="F5">
+        <f>IF(E5&lt;0.5, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>IF(F5=1, LN(E5), LN(1-E5))</f>
+        <v>-0.24047235770839367</v>
+      </c>
+      <c r="H5">
+        <f>F5-E5</f>
+        <v>0.21374362092416055</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I14" si="1">A5*H5</f>
+        <v>0.21374362092416055</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J14" si="2">B5*I5</f>
+        <v>7.4402487428546882E-2</v>
+      </c>
+      <c r="K5">
+        <f>C5*H5</f>
+        <v>3.9637201923684119E-2</v>
+      </c>
+      <c r="L5">
+        <f>-E5*(1-E5)</f>
+        <v>-0.1680572854383893</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M14" si="3">A5*A5</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N14" si="4">A5*B5</f>
+        <v>0.34809220086594306</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O14" si="5">A5*C5</f>
+        <v>0.18544273626649188</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P14" si="6">B5*B5</f>
+        <v>0.12116818030369605</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q14" si="7">B5*C5</f>
+        <v>6.4551170201605793E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R14" si="8">C5*C5</f>
+        <v>3.4389008434003665E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3294,15 +3413,67 @@
         <v>0.43695084898123793</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D14" si="0">SUMPRODUCT(A$2:C$2,A6:C6)</f>
-        <v>7.8623855191441665</v>
+        <f t="shared" ref="D6:D14" si="9">SUMPRODUCT(A6:C6,A$2:C$2)</f>
+        <v>-1.1376144808558333</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E14" si="1">IF(D6&gt;A3, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0.24275861436886847</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F14" si="10">IF(E6&lt;0.5, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G14" si="11">IF(F6=1, LN(E6), LN(1-E6))</f>
+        <v>-0.27807320499802152</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H14" si="12">F6-E6</f>
+        <v>-0.24275861436886847</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-0.24275861436886847</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3.1543332947815375E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K14" si="13">C6*H6</f>
+        <v>-0.10607358264598603</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L14" si="14">-E6*(1-E6)</f>
+        <v>-0.18382686951857549</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-0.12993702831029386</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>0.43695084898123793</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>1.6883631326110107E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>-5.6776094834282045E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>0.1909260444254246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3313,15 +3484,67 @@
         <v>-0.55444819604843953</v>
       </c>
       <c r="D7">
+        <f t="shared" si="9"/>
+        <v>1.3007375717538261</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>10.300737571753826</v>
-      </c>
-      <c r="E7">
+        <v>0.7859590889908159</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="11"/>
+        <v>-0.24085053753756472</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="12"/>
+        <v>0.2140409110091841</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.2140409110091841</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>-0.13677608137518266</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="13"/>
+        <v>-0.11867459698960671</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="14"/>
+        <v>-0.16822739942354265</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>-0.63901840414664401</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>-0.55444819604843953</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0.40834452083812367</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>0.35430260142085945</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>0.30741280210136884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3332,15 +3555,67 @@
         <v>-0.61432921385705686</v>
       </c>
       <c r="D8">
+        <f t="shared" si="9"/>
+        <v>5.0863301252678479</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>14.086330125267846</v>
-      </c>
-      <c r="E8">
+        <v>0.99385730534307182</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="11"/>
+        <v>-6.161638623596314E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="12"/>
+        <v>6.1426946569281826E-3</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.1426946569281826E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>3.3355103695696478E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="13"/>
+        <v>-3.7736367795546339E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="14"/>
+        <v>-6.1049619592799288E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.54300442327987342</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>-0.61432921385705686</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0.29485380370150793</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>-0.33358348047442915</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>0.37740038299822948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3351,15 +3626,67 @@
         <v>-0.87908143211927881</v>
       </c>
       <c r="D9">
+        <f t="shared" si="9"/>
+        <v>6.6108073481319911</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>15.61080734813199</v>
-      </c>
-      <c r="E9">
+        <v>0.99865606337048907</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="11"/>
+        <v>-1.3448405222835054E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="12"/>
+        <v>1.3439366295109334E-3</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3439366295109334E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>9.382835228305249E-4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="13"/>
+        <v>-1.1814297369480279E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="14"/>
+        <v>-1.3421304638467921E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.69816053988495863</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>-0.87908143211927881</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>0.48742813945245689</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>-0.61373996725123825</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>0.77278416429688224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3370,15 +3697,67 @@
         <v>-0.8537612203120768</v>
       </c>
       <c r="D10">
+        <f t="shared" si="9"/>
+        <v>6.3758532452858407</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>15.375853245285839</v>
-      </c>
-      <c r="E10">
+        <v>0.99830072563821237</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="11"/>
+        <v>-1.7007197661237097E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="12"/>
+        <v>1.6992743617876283E-3</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.6992743617876283E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.1106504604625742E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="13"/>
+        <v>-1.450774552764831E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="14"/>
+        <v>-1.6963868284309994E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.65360278801251104</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>-0.8537612203120768</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>0.42719660449772745</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>-0.55802071389293706</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>0.72890822130876654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3389,15 +3768,67 @@
         <v>-7.8799753081732815E-2</v>
       </c>
       <c r="D11">
+        <f t="shared" si="9"/>
+        <v>-1.0380314157097783</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>7.9619685842902213</v>
-      </c>
-      <c r="E11">
+        <v>0.26153001214300997</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="11"/>
+        <v>-0.30317481716353012</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="12"/>
+        <v>-0.26153001214300997</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-0.26153001214300997</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.20514679413991374</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="13"/>
+        <v>2.0608500380331771E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="14"/>
+        <v>-0.19313206489148702</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>-0.78441014267890319</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>-7.8799753081732815E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0.61529927193753731</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>6.1811325557904376E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>6.20940108574206E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3408,15 +3839,67 @@
         <v>0.65448259612354232</v>
       </c>
       <c r="D12">
+        <f t="shared" si="9"/>
+        <v>-0.2133988368279387</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>8.7866011631720617</v>
-      </c>
-      <c r="E12">
+        <v>0.44685183103058279</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="11"/>
+        <v>-0.59212937669485965</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="12"/>
+        <v>-0.44685183103058279</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-0.44685183103058279</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>-0.20920583127162445</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="13"/>
+        <v>-0.29245674645545428</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="14"/>
+        <v>-0.24717527213519827</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0.46817718255541019</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0.65448259612354232</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0.21918987426552189</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>0.30641381788467048</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>0.42834746862861178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3427,15 +3910,67 @@
         <v>-0.51058872991435122</v>
       </c>
       <c r="D13">
+        <f t="shared" si="9"/>
+        <v>5.3332182933515773</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>14.333218293351578</v>
-      </c>
-      <c r="E13">
+        <v>0.99519469699859098</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="11"/>
+        <v>-4.8168855900052165E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="12"/>
+        <v>4.8053030014090226E-3</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.8053030014090226E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>3.6694308818102021E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="13"/>
+        <v>-2.4535335563430527E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="14"/>
+        <v>-4.7822120644736722E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.7636211245647242</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>-0.51058872991435122</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>0.58311722188149406</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>-0.38989634012727109</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>0.2607008511155503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3446,12 +3981,455 @@
         <v>0.1611716686011968</v>
       </c>
       <c r="D14">
+        <f t="shared" si="9"/>
+        <v>-0.17446698722964338</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>8.8255330127703573</v>
-      </c>
-      <c r="E14">
+        <v>0.45649355399342079</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="11"/>
+        <v>-0.60971371231350557</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="12"/>
+        <v>-0.45649355399342079</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-0.45649355399342079</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>8.0613765945721616E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="13"/>
+        <v>-7.357382780281016E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="14"/>
+        <v>-0.24810718915587662</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>-0.17659343760828539</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.1611716686011968</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>3.1185242206311383E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>-2.8461859003348695E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>2.5976306759694007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G5:G14)</f>
+        <v>-2.2784380909178839</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I5:I14)</f>
+        <v>-0.96585827095290155</v>
+      </c>
+      <c r="J15">
+        <f>SUM(J5:J14)</f>
+        <v>5.4778343049863447E-2</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K5:K14)</f>
+        <v>-0.5393924262154518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:C19" si="15">B5</f>
+        <v>0.34809220086594306</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="15"/>
+        <v>0.18544273626649188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ref="A20:C20" si="16">A6</f>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="16"/>
+        <v>-0.12993702831029386</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="16"/>
+        <v>0.43695084898123793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" ref="A21:C21" si="17">A7</f>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="17"/>
+        <v>-0.63901840414664401</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="17"/>
+        <v>-0.55444819604843953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" ref="A22:C22" si="18">A8</f>
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="18"/>
+        <v>0.54300442327987342</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="18"/>
+        <v>-0.61432921385705686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ref="A23:C23" si="19">A9</f>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="19"/>
+        <v>0.69816053988495863</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="19"/>
+        <v>-0.87908143211927881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ref="A24:C24" si="20">A10</f>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="20"/>
+        <v>0.65360278801251104</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="20"/>
+        <v>-0.8537612203120768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ref="A25:C25" si="21">A11</f>
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="21"/>
+        <v>-0.78441014267890319</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="21"/>
+        <v>-7.8799753081732815E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ref="A26:C26" si="22">A12</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="22"/>
+        <v>0.46817718255541019</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="22"/>
+        <v>0.65448259612354232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ref="A27:C27" si="23">A13</f>
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="23"/>
+        <v>0.7636211245647242</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="23"/>
+        <v>-0.51058872991435122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ref="A28:C28" si="24">A14</f>
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="24"/>
+        <v>-0.17659343760828539</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="24"/>
+        <v>0.1611716686011968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>IF(F5&lt;1,-1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ref="A33:A41" si="25">IF(F6&lt;1,-1,1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:C45" si="26">B2</f>
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="26"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f>-G15</f>
+        <v>2.2784380909178839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>-I15</f>
+        <v>0.96585827095290155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>-J15</f>
+        <v>-5.4778343049863447E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f>-K15</f>
+        <v>0.5393924262154518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>-SUMPRODUCT(L5:L14,M5:M14)</f>
+        <v>1.2224517718791008</v>
+      </c>
+      <c r="B59">
+        <f>-SUMPRODUCT(L5:L14,N5:N14)</f>
+        <v>-0.14346131541026888</v>
+      </c>
+      <c r="C59">
+        <f>-SUMPRODUCT(L5:L14,O5:O14)</f>
+        <v>0.19593558454952942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>B59</f>
+        <v>-0.14346131541026888</v>
+      </c>
+      <c r="B60">
+        <f>-SUMPRODUCT(L5:L14,P5:P14)</f>
+        <v>0.2788787602054682</v>
+      </c>
+      <c r="C60">
+        <f>-SUMPRODUCT(L5:L14,Q5:Q14)</f>
+        <v>0.13495738429378021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>C59</f>
+        <v>0.19593558454952942</v>
+      </c>
+      <c r="B61">
+        <f>C60</f>
+        <v>0.13495738429378021</v>
+      </c>
+      <c r="C61">
+        <f>-SUMPRODUCT(L5:L14,R5:R14)</f>
+        <v>0.21193739095626163</v>
       </c>
     </row>
   </sheetData>
@@ -3461,1511 +4439,4970 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>9.7668774559974096</v>
+      </c>
+      <c r="C6">
+        <v>-0.42773392862986603</v>
+      </c>
+      <c r="D6">
+        <v>7.0762833237699163E-2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>1/(1+EXP(-SUMPRODUCT(A6:D6,A2:D2)))</f>
+        <v>0.69216732648427626</v>
+      </c>
+      <c r="G6">
+        <f>IF(E6=1, LN(F6), LN(1-F6))</f>
+        <v>-0.36792755131582894</v>
+      </c>
+      <c r="H6">
+        <f>E6-F6</f>
+        <v>0.30783267351572374</v>
+      </c>
+      <c r="I6">
+        <f>$H6*A6</f>
+        <v>0.30783267351572374</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:L20" si="0">$H6*B6</f>
+        <v>3.0065639991801332</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-0.13167047880351543</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.178311214110825E-2</v>
+      </c>
+      <c r="M6">
+        <f>-F6*(1-F6)</f>
+        <v>-0.21307171863188556</v>
+      </c>
+      <c r="N6">
+        <f>$A6*A6</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:Q6" si="1">$A6*B6</f>
+        <v>9.7668774559974096</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>-0.42773392862986603</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>7.0762833237699163E-2</v>
+      </c>
+      <c r="R6">
+        <f>$B6*B6</f>
+        <v>95.391895240470433</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:T6" si="2">$B6*C6</f>
+        <v>-4.1776248647002436</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.69113192067178819</v>
+      </c>
+      <c r="U6">
+        <f>$C6*C6</f>
+        <v>0.18295631370113932</v>
+      </c>
+      <c r="V6">
+        <f>$C6*D6</f>
+        <v>-3.0267664661741127E-2</v>
+      </c>
+      <c r="W6">
+        <f>D6*D6</f>
+        <v>5.0073785678264211E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3.535082732807763</v>
+      </c>
+      <c r="C7">
+        <v>-1.0431260092280459E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.18408649174893982</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>1/(1+EXP(-SUMPRODUCT(A7:D7,A2:D2)))</f>
+        <v>0.47150276885084319</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G20" si="3">IF(E7=1, LN(F7), LN(1-F7))</f>
+        <v>-0.63771771276001188</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H20" si="4">E7-F7</f>
+        <v>-0.47150276885084319</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I20" si="5">$H7*A7</f>
+        <v>-0.47150276885084319</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-1.6668012966356658</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4.9183680161135387E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-8.6797290567663027E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M20" si="6">-F7*(1-F7)</f>
+        <v>-0.24918790781683153</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N20" si="7">$A7*A7</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O20" si="8">$A7*B7</f>
+        <v>3.535082732807763</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P20" si="9">$A7*C7</f>
+        <v>-1.0431260092280459E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q20" si="10">$A7*D7</f>
+        <v>0.18408649174893982</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R20" si="11">$B7*B7</f>
+        <v>12.496809927795601</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S20" si="12">$B7*C7</f>
+        <v>-3.687536743364736E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T20" si="13">$B7*D7</f>
+        <v>0.65076097832483593</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U20" si="14">$C7*C7</f>
+        <v>1.0881118711280293E-4</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V20" si="15">$C7*D7</f>
+        <v>-1.920254074908632E-3</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W20" si="16">D7*D7</f>
+        <v>3.3887836444432488E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.15637377789272988</v>
+      </c>
+      <c r="C8">
+        <v>-0.41021933339251593</v>
+      </c>
+      <c r="D8">
+        <v>0.11582983345345116</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>1/(1+EXP(-SUMPRODUCT(A8:D8,A2:D2)))</f>
+        <v>0.25769087148349951</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>-0.29798950732344592</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>-0.25769087148349951</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>-0.25769087148349951</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-4.0296095102344755E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.10570977752129766</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-2.9848290726408433E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>-0.19128628623757404</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>0.15637377789272988</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>-0.41021933339251593</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>0.11582983345345116</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="11"/>
+        <v>2.4452758412444816E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>-6.4147546927224991E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>1.8112748649801867E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>0.16827990148900013</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="15"/>
+        <v>-4.7515637066240873E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>1.3416550317854234E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5.9327236776029988</v>
+      </c>
+      <c r="C9">
+        <v>0.65427684746624548</v>
+      </c>
+      <c r="D9">
+        <v>-4.7322169233278893E-2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>1/(1+EXP(-SUMPRODUCT(A9:D9,A2:D2)))</f>
+        <v>0.61452209068505737</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>-0.48691040158223564</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.38547790931494263</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>0.38547790931494263</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2.2869339197856617</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.25220927127445991</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-1.8241650860292249E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>-0.2368846907451235</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>5.9327236776029988</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>0.65427684746624548</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="10"/>
+        <v>-4.7322169233278893E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="11"/>
+        <v>35.19721023479125</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>3.8816437446704404</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>-0.28074935388580985</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>0.42807819313036866</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="15"/>
+        <v>-3.096179970121387E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>2.2393877009430877E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9.7390813727257779</v>
+      </c>
+      <c r="C10">
+        <v>-0.280801806518578</v>
+      </c>
+      <c r="D10">
+        <v>0.14567297967897691</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>1/(1+EXP(-SUMPRODUCT(A10:D10,A2:D2)))</f>
+        <v>0.7217358460138692</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-0.32609607128068185</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0.2782641539861308</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>0.2782641539861308</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>2.7100372387836242</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-7.8137077128669297E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>4.0535568449009338E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>-0.20083321459251369</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>9.7390813727257779</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>-0.280801806518578</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>0.14567297967897691</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="11"/>
+        <v>94.849705984574229</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>-2.7347516432928307</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>1.4187210029009849</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>7.8849654544096912E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>-4.0905235854800819E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>2.1220617008551618E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1.2237010622107802</v>
+      </c>
+      <c r="C11">
+        <v>0.4349604919632144</v>
+      </c>
+      <c r="D11">
+        <v>-7.6273419037878598E-3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>1/(1+EXP(-SUMPRODUCT(A11:D11,A2:D2)))</f>
+        <v>0.36693070219711693</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-1.0025822711079313</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0.63306929780288312</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>0.63306929780288312</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.77468757217442086</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.27536013321914871</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-4.8286359831334865E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>-0.23229256198224765</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>1.2237010622107802</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>0.4349604919632144</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>-7.6273419037878598E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="11"/>
+        <v>1.4974442896557918</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="12"/>
+        <v>0.53226161603510902</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="13"/>
+        <v>-9.3335863895099985E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="14"/>
+        <v>0.1891906295688815</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="15"/>
+        <v>-3.3175923868432079E-3</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="16"/>
+        <v>5.8176344517278211E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>8.6162974649893052</v>
+      </c>
+      <c r="C12">
+        <v>0.28215424560704028</v>
+      </c>
+      <c r="D12">
+        <v>2.5412228903469891E-2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>1/(1+EXP(-SUMPRODUCT(A12:D12,A2:D2)))</f>
+        <v>0.70883834021075187</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-0.34412778943471212</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.29116165978924813</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>0.29116165978924813</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2.5087354711441772</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>8.215249846752902E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>7.3990667464785987E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>-0.20638654765801825</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>8.6162974649893052</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>0.28215424560704028</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>2.5412228903469891E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>74.240582005181125</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="12"/>
+        <v>2.4311249111599111</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="13"/>
+        <v>0.21895932348069558</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="14"/>
+        <v>7.9611018314078005E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="15"/>
+        <v>7.1701682754519713E-3</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="16"/>
+        <v>6.4578137784235051E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.10869649869788001</v>
+      </c>
+      <c r="C13">
+        <v>0.48170388451975632</v>
+      </c>
+      <c r="D13">
+        <v>-2.497186001408519E-2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>1/(1+EXP(-SUMPRODUCT(A13:D13,A2:D2)))</f>
+        <v>0.31812963156671525</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-0.38291571481635273</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>-0.31812963156671525</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>-0.31812963156671525</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-3.4579577083348509E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-0.15324427930652562</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>7.9442886258165105E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>-0.21692316908594125</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>0.10869649869788001</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="9"/>
+        <v>0.48170388451975632</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="10"/>
+        <v>-2.497186001408519E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="11"/>
+        <v>1.181492882917823E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="12"/>
+        <v>5.2359525656465435E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="13"/>
+        <v>-2.7143537495046524E-3</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="14"/>
+        <v>0.23203863236142272</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="15"/>
+        <v>-1.2029041972468412E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="16"/>
+        <v>6.235937925630668E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>7.3652660670297649</v>
+      </c>
+      <c r="C14">
+        <v>-5.4053639392648511E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.1093862910707008</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>1/(1+EXP(-SUMPRODUCT(A14:D14,A2:D2)))</f>
+        <v>0.63539046110857977</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-1.0089282544593483</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>-0.63539046110857977</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>-0.63539046110857977</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>-4.679819802517418</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>3.434516685829183E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>-6.9503005922369909E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>-0.23166942304080615</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>7.3652660670297649</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>-5.4053639392648511E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="10"/>
+        <v>0.1093862910707008</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>54.247144238140102</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="12"/>
+        <v>-0.39811943601813748</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="13"/>
+        <v>0.80565913782127363</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="14"/>
+        <v>2.9217959315904827E-3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="15"/>
+        <v>-5.9127271320349494E-3</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="16"/>
+        <v>1.1965360674204078E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4.9344069855239345</v>
+      </c>
+      <c r="C15">
+        <v>0.32457549228826865</v>
+      </c>
+      <c r="D15">
+        <v>-4.9362671793981155E-2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>1/(1+EXP(-SUMPRODUCT(A15:D15,A2:D2)))</f>
+        <v>0.52493092586355372</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-0.64448859483028376</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.47506907413644628</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>0.47506907413644628</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2.3441841580252682</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.15419577860876904</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>-2.3450678786067901E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>-0.249378448935586</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>4.9344069855239345</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>0.32457549228826865</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>-4.9362671793981155E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="11"/>
+        <v>24.348372298787403</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>1.6015875764771028</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="13"/>
+        <v>-0.24357551252434589</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="14"/>
+        <v>0.10534925019417195</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="15"/>
+        <v>-1.6021913498195667E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="16"/>
+        <v>2.4366733666403026E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.23079167882534501</v>
+      </c>
+      <c r="C16">
+        <v>0.79365689297261266</v>
+      </c>
+      <c r="D16">
+        <v>-0.1980226342778508</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>1/(1+EXP(-SUMPRODUCT(A16:D16,A2:D2)))</f>
+        <v>0.31972500540198384</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-0.38525815874055863</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>-0.31972500540198384</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>-0.31972500540198384</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-7.3789870759166348E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-0.25375195439299031</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>6.3312787814200924E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-0.21750092632268525</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>0.23079167882534501</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>0.79365689297261266</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>-0.1980226342778508</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="11"/>
+        <v>5.3264799015021208E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>0.18316940674045645</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="13"/>
+        <v>-4.5701976210402499E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="14"/>
+        <v>0.62989126376294113</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="15"/>
+        <v>-0.15716202865921106</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="16"/>
+        <v>3.9212963686339454E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.9037456595743476</v>
+      </c>
+      <c r="C17">
+        <v>-0.63183161114445197</v>
+      </c>
+      <c r="D17">
+        <v>1.6350264380867452E-3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>1/(1+EXP(-SUMPRODUCT(A17:D17,A2:D2)))</f>
+        <v>0.24350993694576481</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-1.4125975284799737</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.75649006305423516</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0.75649006305423516</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.6836746109963896</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>-0.47797433535432549</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1.2368812532435834E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>-0.18421284755443446</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>0.9037456595743476</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>-0.63183161114445197</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>1.6350264380867452E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="11"/>
+        <v>0.81675621719947256</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>-0.57101507615366542</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="13"/>
+        <v>1.4776480467102017E-3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="14"/>
+        <v>0.39921118484139395</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="15"/>
+        <v>-1.0330613886401227E-3</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="16"/>
+        <v>2.673311453242629E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3.9860480523741106</v>
+      </c>
+      <c r="C18">
+        <v>-0.13016038280450237</v>
+      </c>
+      <c r="D18">
+        <v>-7.226369514810399E-3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>1/(1+EXP(-SUMPRODUCT(A18:D18,A2:D2)))</f>
+        <v>0.43165623159659083</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>-0.84012576771631386</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0.56834376840340917</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0.56834376840340917</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2.2654455711233719</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>-7.3975842459941182E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>-4.1070620819228573E-3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>-0.24532912932042117</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>3.9860480523741106</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>-0.13016038280450237</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>-7.226369514810399E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="11"/>
+        <v>15.888579075835441</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="12"/>
+        <v>-0.5188255403741554</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="13"/>
+        <v>-2.8804656130245639E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="14"/>
+        <v>1.6941725251814598E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="15"/>
+        <v>9.4058702233450761E-4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="16"/>
+        <v>5.2220416364581083E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8.6020002688739474</v>
+      </c>
+      <c r="C19">
+        <v>-0.78638266409201218</v>
+      </c>
+      <c r="D19">
+        <v>7.1111155775110402E-3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>1/(1+EXP(-SUMPRODUCT(A19:D19,A2:D2)))</f>
+        <v>0.58281008707116932</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>-0.87421373417074977</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>-0.58281008707116932</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>-0.58281008707116932</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>-5.0133325256886474</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.45831174893072374</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>-4.1444298889023578E-3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>-0.24314248947926537</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>8.6020002688739474</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>-0.78638266409201218</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>7.1111155775110402E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="11"/>
+        <v>73.994408625707464</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>-6.7644638879572998</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="13"/>
+        <v>6.116981810974368E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="14"/>
+        <v>0.61839769438445047</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="15"/>
+        <v>-5.5920580125093395E-3</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="16"/>
+        <v>5.0567964756720176E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>8.3389295408463031</v>
+      </c>
+      <c r="C20">
+        <v>-0.52649706586573553</v>
+      </c>
+      <c r="D20">
+        <v>-0.13530493067229582</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>1/(1+EXP(-SUMPRODUCT(A20:D20,A2:D2)))</f>
+        <v>0.56690446152983809</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>-0.56756448763550582</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0.43309553847016191</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>0.43309553847016191</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3.6115531797575695</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>-0.22802353024408104</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>-5.8599961807185887E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>-0.2455237930274024</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>8.3389295408463031</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>-0.52649706586573553</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>-0.13530493067229582</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>69.537745887199137</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>-4.3904219357166836</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="13"/>
+        <v>-1.1282982834053688</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="14"/>
+        <v>0.27719916036522863</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="15"/>
+        <v>7.1237648996130512E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="16"/>
+        <v>1.8307424264234779E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G6:G20)</f>
+        <v>-9.579443545653934</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <f>SUM(I6:I20)</f>
+        <v>1.5435553129903901</v>
+      </c>
+      <c r="J21">
+        <f>SUM(J6:J20)</f>
+        <v>8.6831965531840218</v>
+      </c>
+      <c r="K21">
+        <f>SUM(K6:K20)</f>
+        <v>-2.957475479371488E-2</v>
+      </c>
+      <c r="L21">
+        <f>SUM(L6:L20)</f>
+        <v>-0.1573093015940889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>A6</f>
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:D25" si="17">B6</f>
+        <v>9.7668774559974096</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="17"/>
+        <v>-0.42773392862986603</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="17"/>
+        <v>7.0762833237699163E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ref="A26:D26" si="18">A7</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="18"/>
+        <v>3.535082732807763</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="18"/>
+        <v>-1.0431260092280459E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="18"/>
+        <v>0.18408649174893982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ref="A27:D27" si="19">A8</f>
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="19"/>
+        <v>0.15637377789272988</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="19"/>
+        <v>-0.41021933339251593</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="19"/>
+        <v>0.11582983345345116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ref="A28:D28" si="20">A9</f>
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="20"/>
+        <v>5.9327236776029988</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="20"/>
+        <v>0.65427684746624548</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="20"/>
+        <v>-4.7322169233278893E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ref="A29:D29" si="21">A10</f>
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="21"/>
+        <v>9.7390813727257779</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="21"/>
+        <v>-0.280801806518578</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="21"/>
+        <v>0.14567297967897691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" ref="A30:D30" si="22">A11</f>
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="22"/>
+        <v>1.2237010622107802</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="22"/>
+        <v>0.4349604919632144</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="22"/>
+        <v>-7.6273419037878598E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" ref="A31:D31" si="23">A12</f>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="23"/>
+        <v>8.6162974649893052</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="23"/>
+        <v>0.28215424560704028</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="23"/>
+        <v>2.5412228903469891E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" ref="A32:D32" si="24">A13</f>
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="24"/>
+        <v>0.10869649869788001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="24"/>
+        <v>0.48170388451975632</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="24"/>
+        <v>-2.497186001408519E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ref="A33:D33" si="25">A14</f>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="25"/>
+        <v>7.3652660670297649</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="25"/>
+        <v>-5.4053639392648511E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="25"/>
+        <v>0.1093862910707008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ref="A34:D34" si="26">A15</f>
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="26"/>
+        <v>4.9344069855239345</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="26"/>
+        <v>0.32457549228826865</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="26"/>
+        <v>-4.9362671793981155E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ref="A35:D35" si="27">A16</f>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="27"/>
+        <v>0.23079167882534501</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="27"/>
+        <v>0.79365689297261266</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>-0.1980226342778508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ref="A36:D36" si="28">A17</f>
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="28"/>
+        <v>0.9037456595743476</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="28"/>
+        <v>-0.63183161114445197</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="28"/>
+        <v>1.6350264380867452E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ref="A37:D37" si="29">A18</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="29"/>
+        <v>3.9860480523741106</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="29"/>
+        <v>-0.13016038280450237</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="29"/>
+        <v>-7.226369514810399E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ref="A38:D39" si="30">A19</f>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="30"/>
+        <v>8.6020002688739474</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="30"/>
+        <v>-0.78638266409201218</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="30"/>
+        <v>7.1111155775110402E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>A20</f>
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="30"/>
+        <v>8.3389295408463031</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="30"/>
+        <v>-0.52649706586573553</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="30"/>
+        <v>-0.13530493067229582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>IF(E6&gt;0, 1, -1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ref="A44:A57" si="31">IF(E7&gt;0, 1, -1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>A2</f>
+        <v>-1</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:D61" si="32">B2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f>-G21</f>
+        <v>9.579443545653934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>-I21</f>
+        <v>-1.5435553129903901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>-J21</f>
+        <v>-8.6831965531840218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>-K21</f>
+        <v>2.957475479371488E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f>-L21</f>
+        <v>0.1573093015940889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>-SUMPRODUCT($M6:$M20,N6:N20)</f>
+        <v>3.3636231544307358</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76:D76" si="33">-SUMPRODUCT($M6:$M20,O6:O20)</f>
+        <v>16.70961489346654</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="33"/>
+        <v>-3.7602742027947389E-2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="33"/>
+        <v>3.6206567168422896E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f>B76</f>
+        <v>16.70961489346654</v>
+      </c>
+      <c r="B77">
+        <f>-SUMPRODUCT($M6:$M20,R6:R20)</f>
+        <v>124.2670567734266</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:D77" si="34">-SUMPRODUCT($M6:$M20,S6:S20)</f>
+        <v>-2.5127143773594494</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="34"/>
+        <v>0.42075992907592724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f>C76</f>
+        <v>-3.7602742027947389E-2</v>
+      </c>
+      <c r="B78">
+        <f>C77</f>
+        <v>-2.5127143773594494</v>
+      </c>
+      <c r="C78">
+        <f>-SUMPRODUCT($M6:$M20,U6:U20)</f>
+        <v>0.75921767152722586</v>
+      </c>
+      <c r="D78">
+        <f>-SUMPRODUCT($M6:$M20,V6:V20)</f>
+        <v>-5.6843370938394477E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f>D76</f>
+        <v>3.6206567168422896E-2</v>
+      </c>
+      <c r="B79">
+        <f>D77</f>
+        <v>0.42075992907592724</v>
+      </c>
+      <c r="C79">
+        <f>D78</f>
+        <v>-5.6843370938394477E-2</v>
+      </c>
+      <c r="D79">
+        <f>-SUMPRODUCT($M6:$M20,W6:W20)</f>
+        <v>3.3581144829721486E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">2*RAND()-1</f>
-        <v>0.13625009306911573</v>
+        <v>0.53564271363509008</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">2*RAND()-1</f>
-        <v>0.43437020514957148</v>
+        <v>-0.44779266062768452</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9118389727951568</v>
+        <v>0.45397358972562651</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33185190685208399</v>
+        <v>-0.73631344509199947</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.679035631087384E-2</v>
+        <v>0.23813096818623292</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43643477413456711</v>
+        <v>0.55770713470941247</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5648189899684155E-3</v>
+        <v>0.99011803586560321</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42182454576860628</v>
+        <v>-0.23547466818562901</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49392499203224194</v>
+        <v>-2.7215751169935576E-2</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40186188426619451</v>
+        <v>-0.23478417205575131</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95074972232623423</v>
+        <v>-0.50942251571239394</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:K30" ca="1" si="1">2*RAND()-1</f>
-        <v>0.95255093642869859</v>
+        <v>-0.31304053131394349</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17086192365878317</v>
+        <v>0.75142812114169089</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30300375314708949</v>
+        <v>0.180480014580922</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28425073332472728</v>
+        <v>-0.49236463557272381</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43179573231924029</v>
+        <v>-0.79457261363603182</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27403209023498176</v>
+        <v>-0.97877156589137182</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29165415713549092</v>
+        <v>0.54846811241834681</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21957053214661038</v>
+        <v>-2.1690674500885354E-2</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12980796868955569</v>
+        <v>0.88962580172416583</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.91944676341924958</v>
+        <v>0.36653864738335962</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28808383280263072</v>
+        <v>-0.95969588032945463</v>
       </c>
       <c r="N2">
         <f ca="1">0.4*RAND() - 0.2</f>
-        <v>-0.19610956637010185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.12394008600672742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89284007403704835</v>
+        <v>-2.1206784364922182E-3</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43483861129325185</v>
+        <v>0.3383281238398097</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63259786046258548</v>
+        <v>0.82381529200143544</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45105912236346524</v>
+        <v>0.23456472498323699</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90001453483393767</v>
+        <v>0.42209936143682336</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20509056250774949</v>
+        <v>0.84327323259716369</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73788746978767938</v>
+        <v>-0.16722145192643523</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89252308300003813</v>
+        <v>-0.12242523475446254</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63809694803317973</v>
+        <v>-0.21463518354855826</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28612008196084959</v>
+        <v>4.87548617610849E-2</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1795064423007657E-2</v>
+        <v>-0.74935135222248195</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N30" ca="1" si="2">0.4*RAND() - 0.2</f>
-        <v>-8.3783130757442245E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6.3895487742454571E-2</v>
+      </c>
+      <c r="O3">
+        <f ca="1">IF(N3&lt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12001730750321937</v>
+        <v>0.24013296526075845</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39774945649861948</v>
+        <v>-0.4892682275184268</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88881707872904925</v>
+        <v>0.1018223495154289</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59186135736946843</v>
+        <v>0.42864640555382016</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66017329343673192</v>
+        <v>-0.63556500129029181</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20772225996343652</v>
+        <v>-0.90020905789461048</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3263469333267901</v>
+        <v>0.32140596781149</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21254517331576528</v>
+        <v>0.70518572091618537</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39682519180926845</v>
+        <v>0.64134414031192355</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15067252745938453</v>
+        <v>-0.330319497762116</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53105595691306395</v>
+        <v>0.12387883235559283</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15815690250490871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1.9775924146393647E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O30" ca="1" si="3">IF(N4&lt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3195398832678642</v>
+        <v>-0.57330721814579833</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88352595441537884</v>
+        <v>-0.45110799899196108</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62788113572858073</v>
+        <v>-0.26953017867031837</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7486180113615275</v>
+        <v>0.73366175239503173</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42181634417557201</v>
+        <v>-0.44342810044704528</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65912323160018604</v>
+        <v>0.26298456401134884</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28426351560082619</v>
+        <v>0.84393206246888819</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60388007393656196</v>
+        <v>0.88135727369195505</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27257844822647437</v>
+        <v>0.84320352878903226</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64797096859973746</v>
+        <v>-0.50870303459787691</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92213825556758855</v>
+        <v>0.44511613989837895</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3175596336812312E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.6634069173032451E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44692164649952515</v>
+        <v>0.65349594330353722</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85262757365167086</v>
+        <v>0.68314521633317971</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90140749178190638</v>
+        <v>-0.38157318047521471</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46672150780390909</v>
+        <v>-0.53759174851488312</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72317247895387005</v>
+        <v>0.29481122371025625</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30358037306863239</v>
+        <v>0.89386639020508141</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76334461993685654</v>
+        <v>-0.15543103831143124</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48734665130599653</v>
+        <v>-0.99749938355128109</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34702367689934199</v>
+        <v>-0.72537098388507926</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48011422847883134</v>
+        <v>-0.53121507725827977</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7981250679954397</v>
+        <v>0.36062621298149788</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1192622141485586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-5.0636109211642938E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25286967729265908</v>
+        <v>0.67272786555836617</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76561413041723014</v>
+        <v>-0.10198244530723621</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3534764171867515E-2</v>
+        <v>0.59261708481953668</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77635331334218383</v>
+        <v>-0.57036136828969797</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86494298364996158</v>
+        <v>0.44291752337117662</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23104521792701105</v>
+        <v>0.33656488760676151</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11838147718430858</v>
+        <v>0.97791714852980283</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88483076310692255</v>
+        <v>-0.65102631405333566</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34107105773627588</v>
+        <v>-0.50994156931856827</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50743476221100758</v>
+        <v>-0.61149559352682936</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15575110754613397</v>
+        <v>-0.3188705313676361</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4289507775087446E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.2447711937328382E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39388059866974867</v>
+        <v>-0.4799781350038963</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60794229508610886</v>
+        <v>-9.0880504138115104E-2</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97894276768489008</v>
+        <v>-0.36475222231122983</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88427569261635841</v>
+        <v>0.14731373827063465</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9890076264184442</v>
+        <v>-0.36524715914096295</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1322744315360862</v>
+        <v>-0.92963933077936578</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11858812243457484</v>
+        <v>0.59670670046431895</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4206805143958563</v>
+        <v>-0.73074423340782357</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69857392921551198</v>
+        <v>0.15254060518770496</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1923668147597446</v>
+        <v>-0.90457165419158203</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.91774159285599621</v>
+        <v>-2.9625223704125681E-2</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16870434133354817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.6109898667367522E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.90212858542858809</v>
+        <v>-0.44487347902369967</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18904976519823191</v>
+        <v>-0.86375895982958606</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63109720353720311</v>
+        <v>0.91248810435606709</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65419949400503907</v>
+        <v>-0.49211765089060777</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7638429192027143E-2</v>
+        <v>-0.26121365103212346</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13377712257324514</v>
+        <v>-0.4668629877642041</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63693005680496073</v>
+        <v>-0.95713368148814837</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15061449009259875</v>
+        <v>-0.99041665914223098</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14193791765431829</v>
+        <v>-0.62092852543112964</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67758727545369046</v>
+        <v>0.10704700153451374</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99029563200396731</v>
+        <v>-0.63498278568728606</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7690664301019285E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.7496432927599688E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48042170657331762</v>
+        <v>0.31828172048360703</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86729949765238867</v>
+        <v>0.3478742771571437</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.83869203655750435</v>
+        <v>8.7180040258001412E-2</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69301981989546002</v>
+        <v>0.5797460229406548</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38455567427722426</v>
+        <v>0.20374630380603387</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32500684987484929</v>
+        <v>-0.27995600681031685</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32103613250502616</v>
+        <v>0.47340869552860565</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79912188861267208</v>
+        <v>-0.81160735606076395</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36961830824056729</v>
+        <v>-0.95551219769914653</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.47193335601910591</v>
+        <v>-0.65684359185925634</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44770992214400174</v>
+        <v>-2.4351365625904009E-2</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19862658616853829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.0639665513981692E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67528983817526944</v>
+        <v>-0.7737831695644819</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57501555334249765</v>
+        <v>0.49307424115260212</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34531350412969974</v>
+        <v>-0.13563598285121969</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85363543233159178</v>
+        <v>-0.44818510758559382</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29916849667420142</v>
+        <v>-0.44493783925402708</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51169875360636041</v>
+        <v>0.59335175945204388</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32552330750652314</v>
+        <v>0.13525294008809019</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79383100365559156</v>
+        <v>0.27338929036214266</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95424928421326483</v>
+        <v>-0.98014525563721833</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33956123542509031</v>
+        <v>-0.18364390180300161</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49426300138727486</v>
+        <v>-0.52548113017075182</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6188599139616398E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-4.930117519791205E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2161742220004903</v>
+        <v>0.39604463083667318</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56256968205179758</v>
+        <v>-0.36140644645455766</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98451572678169419</v>
+        <v>0.27297408076314</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69260641803908918</v>
+        <v>0.6844853646663418</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13741290112848081</v>
+        <v>0.28707849646320893</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2770854441794619</v>
+        <v>0.59987862493911703</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77263126850556207</v>
+        <v>0.69594958577490007</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89288606478731469</v>
+        <v>-0.6334068177686718</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79406254103083729</v>
+        <v>0.74983714155861203</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59106250613516331</v>
+        <v>-0.53648196566221595</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18806871149821802</v>
+        <v>-0.48405194173593902</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15097526537037353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8.3155944186386888E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2360829548224308</v>
+        <v>0.936547868514368</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78952614691231982</v>
+        <v>0.5694298267932798</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2510962422196403E-2</v>
+        <v>-0.34668104580130166</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80855146371041964</v>
+        <v>0.83310339375051057</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66770786533097026</v>
+        <v>1.0621442511903778E-2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71432382947866935</v>
+        <v>-0.75723036735532956</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62341299998320276</v>
+        <v>0.33827784732307897</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63161306082778967</v>
+        <v>0.80767166407297419</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78101011020479572</v>
+        <v>-0.29569573761155032</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6536943544764702E-2</v>
+        <v>0.84721337745228675</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63001712950858146</v>
+        <v>0.54832362794686418</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.0401046803812272E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6.4749215625008127E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25595072615822723</v>
+        <v>-0.56388987617910846</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30778935061217028</v>
+        <v>0.54416843989431452</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56848537176778025</v>
+        <v>-4.095494217256701E-2</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71873753158888132</v>
+        <v>-0.93731427749736773</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70578736892851079</v>
+        <v>-0.99876699236771116</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7589043784571976</v>
+        <v>0.30403055012574565</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69101674173422567</v>
+        <v>-0.33737634123742821</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50151417030936218</v>
+        <v>-0.19653262798334636</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1350512035711162E-2</v>
+        <v>-0.16649714090648216</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51851729802457291</v>
+        <v>0.60057675711652925</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69145240883007686</v>
+        <v>0.52766276546185398</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>4.010965263251659E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.1541766934308155E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21317766175385966</v>
+        <v>0.41072521788320571</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42618326199723322</v>
+        <v>-0.27516959188518864</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3678592207746767</v>
+        <v>0.9790323515936683</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94076947373573194</v>
+        <v>0.37747818335029559</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88143970370224545</v>
+        <v>0.11241453751385677</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54676441730533365</v>
+        <v>0.8819845166021858</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98433599850995956</v>
+        <v>-0.67630351990585069</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54215422912687772</v>
+        <v>0.65696821954862816</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13820917969056468</v>
+        <v>0.82637066893319755</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5977671559155562E-2</v>
+        <v>-0.17992298462859302</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6763241786897076E-2</v>
+        <v>0.33411222198220014</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.6180917512814428E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.2536307394888793E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98070762088693453</v>
+        <v>0.44187909540307846</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35021479857812365</v>
+        <v>0.32420297605099746</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21266393133373773</v>
+        <v>0.48242942655066123</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31140808650309149</v>
+        <v>-0.18999831252948263</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58392245468868897</v>
+        <v>-0.53671677196529188</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71214821517968141</v>
+        <v>0.2650355569398235</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4058683426902665</v>
+        <v>-0.44255049833312077</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6734403816587673</v>
+        <v>-0.49026084083230437</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71861791348709603</v>
+        <v>0.17694141568930277</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40522114298483225</v>
+        <v>0.30407450573100081</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28115996209906169</v>
+        <v>0.29344966506654702</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3425456037589469E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.9203960460019522E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31954750523382125</v>
+        <v>0.15221698066484213</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57587311823208287</v>
+        <v>-0.74296267361856483</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.76083976926455699</v>
+        <v>0.36509615234681325</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80053920605426065</v>
+        <v>3.7581119837931221E-2</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66136730304195468</v>
+        <v>0.36300317273947713</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23843296146089821</v>
+        <v>0.97131042907500209</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84716725388237313</v>
+        <v>0.11784974199426901</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.71627094852604478</v>
+        <v>0.64217231713200085</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1775047213443717E-3</v>
+        <v>-0.38447944144778323</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17435714422290149</v>
+        <v>0.38295504170464989</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10978977436583071</v>
+        <v>-0.41679309013858767</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4363817047838872E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-3.4753576562246119E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80584874650612326</v>
+        <v>0.51063362652413025</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3807988412072385E-2</v>
+        <v>-4.2868770334875128E-2</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.553859026668307</v>
+        <v>-0.41262670778023725</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28520974679247146</v>
+        <v>0.7254541655524378</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22012477467030722</v>
+        <v>0.37910024020417588</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37678911422537942</v>
+        <v>0.999335507727658</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64058904403888017</v>
+        <v>-0.69682913040772765</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39568931263341089</v>
+        <v>0.90985639519914252</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33644869994220183</v>
+        <v>0.81172822705852776</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19852943074997564</v>
+        <v>0.5588051708988675</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59117828530601635</v>
+        <v>-0.243365754141317</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1841096003866573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1.0578384965290899E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6174095285337291</v>
+        <v>0.53824784907560486</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94626113661888334</v>
+        <v>0.1612807263154683</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25382201506412483</v>
+        <v>0.74896577403549691</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65091581587919323</v>
+        <v>0.56201774468621735</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64205483897316484</v>
+        <v>0.77579682215851187</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55297403946143509</v>
+        <v>0.16494737883611443</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20721841517513018</v>
+        <v>0.91265855925200934</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59055314288461047</v>
+        <v>-0.15194142864677929</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63745864467155311</v>
+        <v>0.89151375398228327</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48804434649738582</v>
+        <v>-0.34180572227335215</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92636487967345893</v>
+        <v>0.74982367486056978</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13892924649781507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.12568668734832189</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.319338400182126</v>
+        <v>-0.78665122799947196</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68719870521184134</v>
+        <v>-0.54505330720301082</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61643861761312513</v>
+        <v>0.9174673531019053</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92486619653458413</v>
+        <v>0.85166490177583776</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.18916735764862724</v>
+        <v>0.75279662609955023</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.9456317926163598E-2</v>
+        <v>-0.98073092097575709</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57227873348297265</v>
+        <v>0.32746828612909895</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80447483896389671</v>
+        <v>-0.98913661084819959</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27403854660572469</v>
+        <v>-0.38249213426921203</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6163226246052953</v>
+        <v>-0.95403408852503779</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39719160821783617</v>
+        <v>-0.39050733841333907</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3231052145478668E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.10727872161809671</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24805665493115536</v>
+        <v>0.46594192028281278</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59282006145322619</v>
+        <v>-0.4085554918257619</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.97042393830089857</v>
+        <v>-0.413670713622311</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5612420335901191E-2</v>
+        <v>0.22988891861485361</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25107660548310329</v>
+        <v>0.87515089077932284</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87537431894030693</v>
+        <v>-0.96230067324270707</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.41677313519791803</v>
+        <v>-0.91156406712642002</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72918646035536461</v>
+        <v>0.83408915764654834</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77038353760452449</v>
+        <v>0.7865532649487561</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5064492384598529</v>
+        <v>-0.36836844384515022</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33997756743621799</v>
+        <v>-0.93686182391842476</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17216374975540394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-9.7173319554061263E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.77546583963342175</v>
+        <v>0.6950351115359763</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80636859310420683</v>
+        <v>0.89073393806679602</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99910014589527174</v>
+        <v>2.9213901711863999E-2</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75256357961170095</v>
+        <v>9.2786216121560905E-3</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22503548081097846</v>
+        <v>-0.28383234518209632</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77563499627911225</v>
+        <v>-0.77437579359369768</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66813381589055476</v>
+        <v>-0.81661256070573685</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38958822182413955</v>
+        <v>0.1382675266507678</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92581802528372203</v>
+        <v>0.19024321755427986</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52185733303294835</v>
+        <v>-0.39154958268285855</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21145975942380502</v>
+        <v>-0.41892372034854763</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9851767638357773E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8.4437377893590404E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94168334153953315</v>
+        <v>0.38826621502852121</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7995947386673814</v>
+        <v>4.9843436638952854E-2</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3483839886397675E-2</v>
+        <v>-0.27359498947250738</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38871057152745703</v>
+        <v>-0.7257409753188655</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98947192958400221</v>
+        <v>0.36892063794547747</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23659088216938562</v>
+        <v>0.83751636678359187</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63056478730753152</v>
+        <v>6.0560091961685103E-2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53345875924814368</v>
+        <v>-0.33256341622349583</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.508451532037248E-2</v>
+        <v>0.62015618474530387</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62902976421427592</v>
+        <v>-0.16817533476052526</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51351323482211386</v>
+        <v>0.48963768962885679</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.11762236413554322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-8.1850270692959498E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87792433003753745</v>
+        <v>-0.40743127109404909</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98831785638521019</v>
+        <v>0.30494853070863992</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.82366276921873638</v>
+        <v>-0.5079740422542427</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49676179029522705</v>
+        <v>-0.94043787454713912</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.60779915544403007</v>
+        <v>-0.91307289939620317</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0161124239860708E-2</v>
+        <v>0.49952981552623243</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88043336082384482</v>
+        <v>0.9165154237215587</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57436976796757278</v>
+        <v>0.22820957891960592</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64766508012615032</v>
+        <v>3.6076045609300555E-2</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5474695467020001</v>
+        <v>-0.9372671192548041</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16491279821174665</v>
+        <v>-0.79230732240370361</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5525028538419599E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.5706585060531518E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26602571476310555</v>
+        <v>0.51639832367167759</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35660794125938922</v>
+        <v>-0.2024200604686377</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15471089476289457</v>
+        <v>0.80271485907572604</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47725219690701337</v>
+        <v>-0.85547485537327606</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.75791525426609629</v>
+        <v>0.36437545753017742</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84340585897418463</v>
+        <v>0.72020410612590857</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9443186415121261E-2</v>
+        <v>-0.60769202890725982</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32878836090318653</v>
+        <v>-9.1173262835465341E-2</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24074522587230107</v>
+        <v>0.63049698931029741</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19387195946079827</v>
+        <v>3.1875954716560351E-2</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15302612346618893</v>
+        <v>-0.11852411239690874</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.3274498877441724E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.16622036056875328</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.90045979353053296</v>
+        <v>-0.35324891468275244</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59597392613475098</v>
+        <v>0.58514755548686748</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74778098734948117</v>
+        <v>-0.31175793055064749</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37262183262925497</v>
+        <v>0.22366789874848969</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21603250675938468</v>
+        <v>0.48704316822036575</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69795045094966723</v>
+        <v>-0.49855440048666266</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53183880659639038</v>
+        <v>0.27692617655029239</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27717432291094157</v>
+        <v>-0.52841386609886554</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73938374906148141</v>
+        <v>0.62300326974055187</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1472884491136679</v>
+        <v>-5.4134281802316497E-2</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38338935077874559</v>
+        <v>0.89047845085915744</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8956251509312347E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.17289487733498091</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2591091579486946</v>
+        <v>-0.55620423038591493</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79074385383603607</v>
+        <v>-0.28025720624956785</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93426087833951676</v>
+        <v>-0.63450613894716379</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95366931245912934</v>
+        <v>-0.26988633586707356</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78478904661075255</v>
+        <v>-0.30193578779766295</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6757787008951741E-2</v>
+        <v>-0.30476721632914039</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8709160960378024</v>
+        <v>0.18950348941591577</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.76246198963229328</v>
+        <v>0.65923800683447031</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7659243782537708</v>
+        <v>-0.43455134360773595</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35759484859390467</v>
+        <v>-0.85291876859882909</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88592332830305365</v>
+        <v>-0.92190439379446754</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.0555402576688806E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-7.3290580162273605E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16730630111265854</v>
+        <v>-0.86453530080168117</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68916459787284978</v>
+        <v>0.48222478224539556</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31539617563749056</v>
+        <v>0.76192441107254516</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9745626250666373E-2</v>
+        <v>0.54671872735247118</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0909814866224554E-3</v>
+        <v>-8.4712449189790151E-2</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.69423687458127659</v>
+        <v>7.5646715467267978E-3</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.41157312322477591</v>
+        <v>-0.74844974787569418</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>7.175698465903757E-2</v>
+        <v>-0.63004969084197349</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92308019646298112</v>
+        <v>-0.42716180080269761</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7805561561333967E-2</v>
+        <v>-5.8778239895906914E-2</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74606157325538836</v>
+        <v>0.77742761495830304</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10964800926853013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-9.3741198144369833E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85597828487171279</v>
+        <v>0.37194509755808247</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2639158424652468</v>
+        <v>0.63379472250748159</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29680612355386082</v>
+        <v>-0.4328412766869596</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17726092549100425</v>
+        <v>0.97616199945778392</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75091058710614922</v>
+        <v>0.35837259045091474</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86733461309917503</v>
+        <v>0.1175658402504014</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84524150986254898</v>
+        <v>0.90775970776827331</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68045392778899472</v>
+        <v>0.85594813094839006</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2754845057427593E-2</v>
+        <v>-0.33445686259021912</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66408774209877919</v>
+        <v>-0.94970405168842253</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66242058043829344</v>
+        <v>-0.31498619970080477</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.2831927548288062E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.14656945728771786</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49957927044066186</v>
+        <v>0.4726679657542936</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88314494295145107</v>
+        <v>0.5100244137062504</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2555651951695674E-2</v>
+        <v>-0.8010239692119685</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46087346002620055</v>
+        <v>-0.95442918675432287</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6890815440154165E-2</v>
+        <v>0.77483323131284498</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29181979404981551</v>
+        <v>-0.92887780593314484</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4362158306478312</v>
+        <v>0.21849262974775141</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66793298258392531</v>
+        <v>0.27127732972299912</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19705581981421672</v>
+        <v>0.66112590169450192</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87607962427059216</v>
+        <v>0.23278036352500098</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28978506036456153</v>
+        <v>0.4443621785913312</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.6447298014506154E-2</v>
+        <v>-0.11147342344204532</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f ca="1">RAND()*10</f>
+        <v>8.4439799542695422</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:K47" ca="1" si="4">RAND()*10</f>
+        <v>2.5896538247886891</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5596157707833491</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9037280069169</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5220938072828645</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7772861159761031</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4375236719371873</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4439761940953866</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.9274810333219214</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3576281187199344</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.5367893809100952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ref="A33:K60" ca="1" si="5">RAND()*10</f>
+        <v>3.1300633877920871</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.6577536917197762</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5668350797115185</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5073274480057037</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4498891714549416</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4097748936386907</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.6504807220200206</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8000961877894257E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8269971645085787</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4257038943337941</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.1940188942765975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2018287655432105</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.26136741139369812</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7715038200175046</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.7229496560087618</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.9296717446594638</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9680269129422205</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.6254245741897204</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2282979357695543</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5731202730317868</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1008303817465368</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.6611683443628955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40077257319397597</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.4886874469381723</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.191457253215777</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.6159693914956552</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9721239518630433</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.030938330711721</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.9061104020844652</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6508351278535116</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.22732132282245132</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8222919567481251</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5081955324203546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.1806032790520131</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7061062277827652</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.89002870902944786</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.9791851681203099</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.8043474817321865</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.39149419649486372</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0957794304118571</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7731100707916454</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4127803513236756</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3773128458558093</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4894665215367091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1705802217122629</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4470432258057047</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5608797165569515</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.9626162348060934</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.0139049761548566</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.27532541213130868</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7324993847399321</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.5506180086899821</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.6139287834361511</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4141004183633248</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5268557966382854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2542051563613206</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0141281718371911</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13275326099579821</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.9560615545008471</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.076040140751755</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.3911619809451832</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.7813371775274698</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4525745620059718</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5973128685440008</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8627373379677703</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.7904831482310062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4955857050620045</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1144988847329209</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.6433429744042556</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.2822874646859912</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.6318949120893826</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8061532223191556</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8681409701052418</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.630581460135951</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1676167749251558</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2077840767718948</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7572362665088426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4705994337933639</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2329113692471017</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0374478943963092</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.2044328034129936</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8871485849721692</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1138629433164193</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.298669794832249</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.203130003491002</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7083544654303173</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.544690568348015</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.814489128178649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.80517439684301251</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8821963949993603</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.9300448872234242</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.0334263804261337</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9175490866436409</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5366350337196035</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2247549453476552</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3040886797453597</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.2829503066631602</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4663198773328974</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.6394259395091879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.101695601785547</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.6325033336159915</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.47832217655654374</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0042242391541416</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.014201360551223</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.3079186222254933</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7355946557440989</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.0064164913901532</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2234264582600032</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0997303498172002</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.5424617464200843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6922807831751938</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.409468744070721</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4519336761999959</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.101074249055964</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4401973773599015</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4814718884839784</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.900990521681921</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4615148243791074</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.3529072493726222</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2237547372264599</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3383000308139521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2009200969435652</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.136073477602852</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.2724625689076632</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.65751954416068847</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4291993786205053</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1116205014545084</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0429941537550684</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.72328811425939055</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.6433369210160276</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7170815200014928</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.442841811556109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.1353549361557755</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.95282755187107937</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2498189692528352</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1644702850807143</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9496367628824327</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.2041184193161776</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.9470595299213649</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.198639796593044</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.8314905879414738</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6577254649337565</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.49454422681817323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1579113838805979</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5750293174318211</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.4720980633544807</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1556922294223595E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5994329372940239</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.7827304491563059</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.7486573521647717</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0341394700089168</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.6852324792786995</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.4591105164666818</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5631620378960926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.753015498686155</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.82488411794659711</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4748411254296512</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3536361686177703</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48802456495610436</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0069335193271574</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.5535301193527573</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7205917971626739</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.96085216483577485</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.4567187041886882</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5263642941601745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3715708801782167</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8430705915314887</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4853423437521549</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.0789134811325312</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.8659589908314369</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8906974579379972</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.9117101898586686</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1935903707546176</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.7881402802383466</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7439180027264598</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0592046651276155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0898190382259842</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.5523433444944557</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.2474848014796134</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10489875285650041</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0965491664884546</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.86566423067263698</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0822611921902041</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.0050147502001714</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.9211941499270093</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2291008562688466</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.694007199646169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.109409243260977</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1475506819594274</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3997026622630635</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.0248117617968635</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.721353054613054</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4020888637102367</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8828718124650834</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1845173305237742</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3592842512946595</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3241032834504829</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9376424207140337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.0290765777024067</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.852831289812757</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9801759751600287</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6094922814413621</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0372817426425334</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1847305692074777</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.707352815738405</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.96031954069824677</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4319370063472974</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7631117486617143</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.3745737496679027</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9001957911674725</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8293222739755883</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.580919918076293</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32130028558928436</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1763396113103148</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8721018034199526</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4936233404990702</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.0214347887753998</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7425577694770782E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4500038515170353</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8378016256919305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1603110486411827</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3638579758357734</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1700140615865475</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9433177424479364</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.9453441755898151</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.8058909755466512</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.7442939147195489</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.2875765837636646</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.1076397634788364</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9854909859179859</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94821140037143592</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.9126262343443017</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0309955796276711</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2030520631263792</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.2277121772585691</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2476684421855977</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.74991525538831816</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7653519036592664</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4402326384386956</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2456783361560897</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.6269504112368711</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3435919717535629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8713300663232655</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.385145805143988</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.8294302999176284</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4433456785420551</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6550154512055189</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9399096020901609</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.4782880826486675</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3990380004463914</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9236441683692773</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4792547518821397</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7778387457596327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9638594111572214</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.63317754346819632</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.5448978374260616</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.905457277469754</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1504365817066875</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78367906831337319</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44565048150897901</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.5767960937912378</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.6225680197317338</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1801552297474931</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.909603497479079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0047479549686078</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.999700891679451</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8549903488301673</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.986683640209745</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.690463142891184</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9961229510956731</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.8860147827147031</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9882791866903196</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.79459104961445592</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0136705142359066</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0143830512624052</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.9168355749172825</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8358393491420841</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9477475801731021</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1150629726570993</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0398102057506686</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.839641335507852</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.88105934120271567</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6956044398339039</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.2006982410028773</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.0088091082919624</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1442349862418997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8255630119675121</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2792081062148006</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.9462341116821289</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.2561503937118434</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7002115616623337</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0337713589257358</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.661030316694764</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9685263045972885</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.63440117555656039</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.955891392232366</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0539456859418577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.6080900269142564</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.2040937575571675</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6630341784529872</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0832585267548076</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7868521010561267</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.5716139729258884</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2264624115120881</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.180755113506879</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4242182086375923</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9617983644050572</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4671616955463604</v>
       </c>
     </row>
   </sheetData>
